--- a/2021.09.23 Author_Affiliations.xlsx
+++ b/2021.09.23 Author_Affiliations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\Documents\SNA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F8225A2-C475-451F-B541-1716B16C11E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D79673-0281-4B53-8880-BC459B717DEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1536,22 +1536,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="7">
     <dxf>
-      <font>
-        <b val="0"/>
-      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <font>
@@ -1618,10 +1617,10 @@
   </sortState>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{B8F6899E-BF97-4624-ADC7-83920074EC56}" name="pmid" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{C0457102-F828-4C30-82CD-8BEF389FD604}" name="author_name" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{6CEA4693-F925-4FDD-B717-01E0762E6C6C}" name="author_id" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{C0457102-F828-4C30-82CD-8BEF389FD604}" name="author_name" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{6CEA4693-F925-4FDD-B717-01E0762E6C6C}" name="author_id" dataDxfId="0"/>
     <tableColumn id="4" xr3:uid="{0063641D-D9FA-4157-BDC7-912E55F7B109}" name="author_aff" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{7DE51D51-7617-45E4-9484-AF4F91788F61}" name="author_type" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{7DE51D51-7617-45E4-9484-AF4F91788F61}" name="author_type" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1951,7 +1950,7 @@
   <dimension ref="A1:F210"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="C210" sqref="C1:C210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1970,7 +1969,7 @@
       <c r="B1" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
@@ -1987,7 +1986,7 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D2" t="s">
@@ -2004,7 +2003,7 @@
       <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D3" t="s">
@@ -2021,7 +2020,7 @@
       <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D4" t="s">
@@ -2038,7 +2037,7 @@
       <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D5" t="s">
@@ -2055,7 +2054,7 @@
       <c r="B6" t="s">
         <v>18</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D6" t="s">
@@ -2072,7 +2071,7 @@
       <c r="B7" t="s">
         <v>20</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D7" t="s">
@@ -2089,7 +2088,7 @@
       <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D8" t="s">
@@ -2106,7 +2105,7 @@
       <c r="B9" t="s">
         <v>26</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D9" t="s">
@@ -2123,7 +2122,7 @@
       <c r="B10" t="s">
         <v>29</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D10" t="s">
@@ -2140,7 +2139,7 @@
       <c r="B11" t="s">
         <v>32</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="4" t="s">
         <v>33</v>
       </c>
       <c r="D11" t="s">
@@ -2157,7 +2156,7 @@
       <c r="B12" t="s">
         <v>32</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="4" t="s">
         <v>33</v>
       </c>
       <c r="D12" t="s">
@@ -2174,7 +2173,7 @@
       <c r="B13" t="s">
         <v>35</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D13" t="s">
@@ -2191,7 +2190,7 @@
       <c r="B14" t="s">
         <v>38</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="4" t="s">
         <v>39</v>
       </c>
       <c r="D14" t="s">
@@ -2208,7 +2207,7 @@
       <c r="B15" t="s">
         <v>41</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="4" t="s">
         <v>42</v>
       </c>
       <c r="D15" t="s">
@@ -2225,7 +2224,7 @@
       <c r="B16" t="s">
         <v>44</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="4" t="s">
         <v>45</v>
       </c>
       <c r="D16" t="s">
@@ -2242,7 +2241,7 @@
       <c r="B17" t="s">
         <v>47</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="4" t="s">
         <v>48</v>
       </c>
       <c r="D17" t="s">
@@ -2259,7 +2258,7 @@
       <c r="B18" t="s">
         <v>52</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="4" t="s">
         <v>50</v>
       </c>
       <c r="D18" t="s">
@@ -2276,7 +2275,7 @@
       <c r="B19" t="s">
         <v>52</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="4" t="s">
         <v>50</v>
       </c>
       <c r="D19" t="s">
@@ -2293,7 +2292,7 @@
       <c r="B20" t="s">
         <v>52</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="4" t="s">
         <v>50</v>
       </c>
       <c r="D20" t="s">
@@ -2310,7 +2309,7 @@
       <c r="B21" t="s">
         <v>52</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="4" t="s">
         <v>50</v>
       </c>
       <c r="D21" t="s">
@@ -2327,7 +2326,7 @@
       <c r="B22" t="s">
         <v>56</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="4" t="s">
         <v>57</v>
       </c>
       <c r="D22" t="s">
@@ -2344,7 +2343,7 @@
       <c r="B23" t="s">
         <v>61</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="4" t="s">
         <v>59</v>
       </c>
       <c r="D23" t="s">
@@ -2361,7 +2360,7 @@
       <c r="B24" t="s">
         <v>62</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="4" t="s">
         <v>63</v>
       </c>
       <c r="D24" t="s">
@@ -2378,7 +2377,7 @@
       <c r="B25" t="s">
         <v>67</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="4" t="s">
         <v>65</v>
       </c>
       <c r="D25" t="s">
@@ -2395,7 +2394,7 @@
       <c r="B26" t="s">
         <v>67</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="4" t="s">
         <v>65</v>
       </c>
       <c r="D26" t="s">
@@ -2412,7 +2411,7 @@
       <c r="B27" t="s">
         <v>67</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="4" t="s">
         <v>65</v>
       </c>
       <c r="D27" t="s">
@@ -2429,7 +2428,7 @@
       <c r="B28" t="s">
         <v>68</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="4" t="s">
         <v>69</v>
       </c>
       <c r="D28" t="s">
@@ -2446,7 +2445,7 @@
       <c r="B29" t="s">
         <v>68</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="4" t="s">
         <v>69</v>
       </c>
       <c r="D29" t="s">
@@ -2463,7 +2462,7 @@
       <c r="B30" t="s">
         <v>72</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="4" t="s">
         <v>73</v>
       </c>
       <c r="D30" t="s">
@@ -2480,7 +2479,7 @@
       <c r="B31" t="s">
         <v>74</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="4" t="s">
         <v>75</v>
       </c>
       <c r="D31" t="s">
@@ -2497,7 +2496,7 @@
       <c r="B32" t="s">
         <v>77</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="4" t="s">
         <v>78</v>
       </c>
       <c r="D32" t="s">
@@ -2514,7 +2513,7 @@
       <c r="B33" t="s">
         <v>80</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="4" t="s">
         <v>81</v>
       </c>
       <c r="D33" t="s">
@@ -2531,7 +2530,7 @@
       <c r="B34" t="s">
         <v>83</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="4" t="s">
         <v>84</v>
       </c>
       <c r="D34" t="s">
@@ -2548,7 +2547,7 @@
       <c r="B35" t="s">
         <v>86</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="4" t="s">
         <v>87</v>
       </c>
       <c r="D35" t="s">
@@ -2565,7 +2564,7 @@
       <c r="B36" t="s">
         <v>88</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="4" t="s">
         <v>89</v>
       </c>
       <c r="D36" t="s">
@@ -2582,7 +2581,7 @@
       <c r="B37" t="s">
         <v>90</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="4" t="s">
         <v>91</v>
       </c>
       <c r="D37" t="s">
@@ -2599,7 +2598,7 @@
       <c r="B38" t="s">
         <v>93</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="4" t="s">
         <v>94</v>
       </c>
       <c r="D38" t="s">
@@ -2616,7 +2615,7 @@
       <c r="B39" t="s">
         <v>95</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="4" t="s">
         <v>96</v>
       </c>
       <c r="D39" t="s">
@@ -2633,7 +2632,7 @@
       <c r="B40" t="s">
         <v>98</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="4" t="s">
         <v>99</v>
       </c>
       <c r="D40" t="s">
@@ -2650,7 +2649,7 @@
       <c r="B41" t="s">
         <v>102</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="4" t="s">
         <v>103</v>
       </c>
       <c r="D41" t="s">
@@ -2667,7 +2666,7 @@
       <c r="B42" t="s">
         <v>105</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="4" t="s">
         <v>106</v>
       </c>
       <c r="D42" t="s">
@@ -2684,7 +2683,7 @@
       <c r="B43" t="s">
         <v>107</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="4" t="s">
         <v>108</v>
       </c>
       <c r="D43" t="s">
@@ -2701,7 +2700,7 @@
       <c r="B44" t="s">
         <v>110</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="4" t="s">
         <v>111</v>
       </c>
       <c r="D44" t="s">
@@ -2718,7 +2717,7 @@
       <c r="B45" t="s">
         <v>113</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="4" t="s">
         <v>114</v>
       </c>
       <c r="D45" t="s">
@@ -2735,7 +2734,7 @@
       <c r="B46" t="s">
         <v>115</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="4" t="s">
         <v>116</v>
       </c>
       <c r="D46" t="s">
@@ -2752,7 +2751,7 @@
       <c r="B47" t="s">
         <v>118</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="4" t="s">
         <v>119</v>
       </c>
       <c r="D47" t="s">
@@ -2769,7 +2768,7 @@
       <c r="B48" t="s">
         <v>121</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="4" t="s">
         <v>122</v>
       </c>
       <c r="D48" t="s">
@@ -2786,7 +2785,7 @@
       <c r="B49" t="s">
         <v>123</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="4" t="s">
         <v>124</v>
       </c>
       <c r="D49" t="s">
@@ -2803,7 +2802,7 @@
       <c r="B50" t="s">
         <v>126</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="4" t="s">
         <v>127</v>
       </c>
       <c r="D50" t="s">
@@ -2820,7 +2819,7 @@
       <c r="B51" t="s">
         <v>128</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="4" t="s">
         <v>129</v>
       </c>
       <c r="D51" t="s">
@@ -2837,7 +2836,7 @@
       <c r="B52" t="s">
         <v>131</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="4" t="s">
         <v>132</v>
       </c>
       <c r="D52" t="s">
@@ -2854,7 +2853,7 @@
       <c r="B53" t="s">
         <v>131</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="4" t="s">
         <v>132</v>
       </c>
       <c r="D53" t="s">
@@ -2871,7 +2870,7 @@
       <c r="B54" t="s">
         <v>131</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="4" t="s">
         <v>132</v>
       </c>
       <c r="D54" t="s">
@@ -2888,7 +2887,7 @@
       <c r="B55" t="s">
         <v>131</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="4" t="s">
         <v>132</v>
       </c>
       <c r="D55" t="s">
@@ -2905,7 +2904,7 @@
       <c r="B56" t="s">
         <v>133</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="4" t="s">
         <v>134</v>
       </c>
       <c r="D56" t="s">
@@ -2922,7 +2921,7 @@
       <c r="B57" t="s">
         <v>136</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="4" t="s">
         <v>137</v>
       </c>
       <c r="D57" t="s">
@@ -2939,7 +2938,7 @@
       <c r="B58" t="s">
         <v>138</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="4" t="s">
         <v>139</v>
       </c>
       <c r="D58" t="s">
@@ -2956,7 +2955,7 @@
       <c r="B59" t="s">
         <v>140</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="4" t="s">
         <v>141</v>
       </c>
       <c r="D59" t="s">
@@ -2973,7 +2972,7 @@
       <c r="B60" t="s">
         <v>143</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="4" t="s">
         <v>144</v>
       </c>
       <c r="D60" t="s">
@@ -2990,7 +2989,7 @@
       <c r="B61" t="s">
         <v>145</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="4" t="s">
         <v>146</v>
       </c>
       <c r="D61" t="s">
@@ -3007,7 +3006,7 @@
       <c r="B62" t="s">
         <v>147</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="4" t="s">
         <v>148</v>
       </c>
       <c r="D62" t="s">
@@ -3024,7 +3023,7 @@
       <c r="B63" t="s">
         <v>150</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="4" t="s">
         <v>151</v>
       </c>
       <c r="D63" t="s">
@@ -3041,7 +3040,7 @@
       <c r="B64" t="s">
         <v>155</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="4" t="s">
         <v>152</v>
       </c>
       <c r="D64" t="s">
@@ -3058,7 +3057,7 @@
       <c r="B65" t="s">
         <v>155</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="4" t="s">
         <v>152</v>
       </c>
       <c r="D65" t="s">
@@ -3075,7 +3074,7 @@
       <c r="B66" t="s">
         <v>156</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="4" t="s">
         <v>157</v>
       </c>
       <c r="D66" t="s">
@@ -3092,7 +3091,7 @@
       <c r="B67" t="s">
         <v>159</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="4" t="s">
         <v>160</v>
       </c>
       <c r="D67" t="s">
@@ -3109,7 +3108,7 @@
       <c r="B68" t="s">
         <v>163</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="4" t="s">
         <v>164</v>
       </c>
       <c r="D68" t="s">
@@ -3126,7 +3125,7 @@
       <c r="B69" t="s">
         <v>170</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="4" t="s">
         <v>166</v>
       </c>
       <c r="D69" t="s">
@@ -3143,7 +3142,7 @@
       <c r="B70" t="s">
         <v>170</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="4" t="s">
         <v>166</v>
       </c>
       <c r="D70" t="s">
@@ -3160,7 +3159,7 @@
       <c r="B71" t="s">
         <v>170</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="4" t="s">
         <v>166</v>
       </c>
       <c r="D71" t="s">
@@ -3177,7 +3176,7 @@
       <c r="B72" t="s">
         <v>170</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="4" t="s">
         <v>166</v>
       </c>
       <c r="D72" t="s">
@@ -3194,7 +3193,7 @@
       <c r="B73" t="s">
         <v>172</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" s="4" t="s">
         <v>173</v>
       </c>
       <c r="D73" t="s">
@@ -3211,7 +3210,7 @@
       <c r="B74" t="s">
         <v>174</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="4" t="s">
         <v>175</v>
       </c>
       <c r="D74" t="s">
@@ -3228,7 +3227,7 @@
       <c r="B75" t="s">
         <v>177</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" s="4" t="s">
         <v>178</v>
       </c>
       <c r="D75" t="s">
@@ -3245,7 +3244,7 @@
       <c r="B76" t="s">
         <v>180</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D76" t="s">
@@ -3262,7 +3261,7 @@
       <c r="B77" t="s">
         <v>180</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D77" t="s">
@@ -3279,7 +3278,7 @@
       <c r="B78" t="s">
         <v>184</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="4" t="s">
         <v>185</v>
       </c>
       <c r="D78" t="s">
@@ -3296,7 +3295,7 @@
       <c r="B79" t="s">
         <v>186</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79" s="4" t="s">
         <v>187</v>
       </c>
       <c r="D79" t="s">
@@ -3313,7 +3312,7 @@
       <c r="B80" t="s">
         <v>189</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" s="4" t="s">
         <v>190</v>
       </c>
       <c r="D80" t="s">
@@ -3330,7 +3329,7 @@
       <c r="B81" t="s">
         <v>192</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="4" t="s">
         <v>193</v>
       </c>
       <c r="D81" t="s">
@@ -3347,7 +3346,7 @@
       <c r="B82" t="s">
         <v>192</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" s="4" t="s">
         <v>193</v>
       </c>
       <c r="D82" t="s">
@@ -3364,7 +3363,7 @@
       <c r="B83" t="s">
         <v>196</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" s="4" t="s">
         <v>197</v>
       </c>
       <c r="D83" t="s">
@@ -3381,7 +3380,7 @@
       <c r="B84" t="s">
         <v>199</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C84" s="4" t="s">
         <v>200</v>
       </c>
       <c r="D84" t="s">
@@ -3398,7 +3397,7 @@
       <c r="B85" t="s">
         <v>202</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85" s="4" t="s">
         <v>203</v>
       </c>
       <c r="D85" t="s">
@@ -3415,7 +3414,7 @@
       <c r="B86" t="s">
         <v>205</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C86" s="4" t="s">
         <v>206</v>
       </c>
       <c r="D86" t="s">
@@ -3432,7 +3431,7 @@
       <c r="B87" t="s">
         <v>207</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87" s="4" t="s">
         <v>208</v>
       </c>
       <c r="D87" t="s">
@@ -3449,7 +3448,7 @@
       <c r="B88" t="s">
         <v>212</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C88" s="4" t="s">
         <v>210</v>
       </c>
       <c r="D88" t="s">
@@ -3466,7 +3465,7 @@
       <c r="B89" t="s">
         <v>213</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C89" s="4" t="s">
         <v>214</v>
       </c>
       <c r="D89" t="s">
@@ -3483,7 +3482,7 @@
       <c r="B90" t="s">
         <v>216</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C90" s="4" t="s">
         <v>217</v>
       </c>
       <c r="D90" t="s">
@@ -3500,7 +3499,7 @@
       <c r="B91" t="s">
         <v>218</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C91" s="4" t="s">
         <v>219</v>
       </c>
       <c r="D91" t="s">
@@ -3517,7 +3516,7 @@
       <c r="B92" t="s">
         <v>221</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C92" s="4" t="s">
         <v>222</v>
       </c>
       <c r="D92" t="s">
@@ -3534,7 +3533,7 @@
       <c r="B93" t="s">
         <v>223</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C93" s="4" t="s">
         <v>224</v>
       </c>
       <c r="D93" t="s">
@@ -3551,7 +3550,7 @@
       <c r="B94" t="s">
         <v>226</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C94" s="4" t="s">
         <v>227</v>
       </c>
       <c r="D94" t="s">
@@ -3568,7 +3567,7 @@
       <c r="B95" t="s">
         <v>229</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C95" s="4" t="s">
         <v>230</v>
       </c>
       <c r="D95" t="s">
@@ -3585,7 +3584,7 @@
       <c r="B96" t="s">
         <v>232</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C96" s="4" t="s">
         <v>233</v>
       </c>
       <c r="D96" t="s">
@@ -3602,7 +3601,7 @@
       <c r="B97" t="s">
         <v>234</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C97" s="4" t="s">
         <v>235</v>
       </c>
       <c r="D97" t="s">
@@ -3619,7 +3618,7 @@
       <c r="B98" t="s">
         <v>237</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C98" s="4" t="s">
         <v>238</v>
       </c>
       <c r="D98" t="s">
@@ -3636,7 +3635,7 @@
       <c r="B99" t="s">
         <v>240</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C99" s="4" t="s">
         <v>241</v>
       </c>
       <c r="D99" t="s">
@@ -3653,7 +3652,7 @@
       <c r="B100" t="s">
         <v>242</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C100" s="4" t="s">
         <v>243</v>
       </c>
       <c r="D100" t="s">
@@ -3670,7 +3669,7 @@
       <c r="B101" t="s">
         <v>244</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C101" s="4" t="s">
         <v>245</v>
       </c>
       <c r="D101" t="s">
@@ -3687,7 +3686,7 @@
       <c r="B102" t="s">
         <v>247</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C102" s="4" t="s">
         <v>248</v>
       </c>
       <c r="D102" t="s">
@@ -3704,7 +3703,7 @@
       <c r="B103" t="s">
         <v>250</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C103" s="4" t="s">
         <v>251</v>
       </c>
       <c r="D103" t="s">
@@ -3721,7 +3720,7 @@
       <c r="B104" t="s">
         <v>253</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C104" s="4" t="s">
         <v>254</v>
       </c>
       <c r="D104" t="s">
@@ -3738,7 +3737,7 @@
       <c r="B105" t="s">
         <v>253</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C105" s="4" t="s">
         <v>254</v>
       </c>
       <c r="D105" t="s">
@@ -3755,7 +3754,7 @@
       <c r="B106" t="s">
         <v>257</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C106" s="4" t="s">
         <v>258</v>
       </c>
       <c r="D106" t="s">
@@ -3772,7 +3771,7 @@
       <c r="B107" t="s">
         <v>259</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C107" s="4" t="s">
         <v>260</v>
       </c>
       <c r="D107" t="s">
@@ -3789,7 +3788,7 @@
       <c r="B108" t="s">
         <v>262</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C108" s="4" t="s">
         <v>263</v>
       </c>
       <c r="D108" t="s">
@@ -3806,7 +3805,7 @@
       <c r="B109" t="s">
         <v>264</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C109" s="4" t="s">
         <v>265</v>
       </c>
       <c r="D109" t="s">
@@ -3823,7 +3822,7 @@
       <c r="B110" t="s">
         <v>266</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C110" s="4" t="s">
         <v>267</v>
       </c>
       <c r="D110" t="s">
@@ -3840,7 +3839,7 @@
       <c r="B111" t="s">
         <v>268</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C111" s="4" t="s">
         <v>269</v>
       </c>
       <c r="D111" t="s">
@@ -3857,7 +3856,7 @@
       <c r="B112" t="s">
         <v>271</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C112" s="4" t="s">
         <v>272</v>
       </c>
       <c r="D112" t="s">
@@ -3874,7 +3873,7 @@
       <c r="B113" t="s">
         <v>274</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C113" s="4" t="s">
         <v>275</v>
       </c>
       <c r="D113" t="s">
@@ -3891,7 +3890,7 @@
       <c r="B114" t="s">
         <v>277</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C114" s="4" t="s">
         <v>278</v>
       </c>
       <c r="D114" t="s">
@@ -3908,7 +3907,7 @@
       <c r="B115" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="C115" s="1">
+      <c r="C115" s="4">
         <v>36731316800</v>
       </c>
       <c r="D115" s="1" t="s">
@@ -3925,7 +3924,7 @@
       <c r="B116" t="s">
         <v>281</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C116" s="4" t="s">
         <v>282</v>
       </c>
       <c r="D116" t="s">
@@ -3942,7 +3941,7 @@
       <c r="B117" t="s">
         <v>283</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C117" s="4" t="s">
         <v>284</v>
       </c>
       <c r="D117" t="s">
@@ -3959,7 +3958,7 @@
       <c r="B118" t="s">
         <v>288</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C118" s="4" t="s">
         <v>286</v>
       </c>
       <c r="D118" t="s">
@@ -3976,7 +3975,7 @@
       <c r="B119" t="s">
         <v>288</v>
       </c>
-      <c r="C119" t="s">
+      <c r="C119" s="4" t="s">
         <v>286</v>
       </c>
       <c r="D119" t="s">
@@ -3993,7 +3992,7 @@
       <c r="B120" t="s">
         <v>290</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C120" s="4" t="s">
         <v>291</v>
       </c>
       <c r="D120" t="s">
@@ -4010,7 +4009,7 @@
       <c r="B121" t="s">
         <v>292</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C121" s="4" t="s">
         <v>293</v>
       </c>
       <c r="D121" t="s">
@@ -4027,7 +4026,7 @@
       <c r="B122" t="s">
         <v>294</v>
       </c>
-      <c r="C122" t="s">
+      <c r="C122" s="4" t="s">
         <v>295</v>
       </c>
       <c r="D122" t="s">
@@ -4044,7 +4043,7 @@
       <c r="B123" t="s">
         <v>296</v>
       </c>
-      <c r="C123" t="s">
+      <c r="C123" s="4" t="s">
         <v>297</v>
       </c>
       <c r="D123" t="s">
@@ -4061,7 +4060,7 @@
       <c r="B124" t="s">
         <v>298</v>
       </c>
-      <c r="C124" t="s">
+      <c r="C124" s="4" t="s">
         <v>299</v>
       </c>
       <c r="D124" t="s">
@@ -4078,7 +4077,7 @@
       <c r="B125" t="s">
         <v>302</v>
       </c>
-      <c r="C125" t="s">
+      <c r="C125" s="4" t="s">
         <v>301</v>
       </c>
       <c r="D125" t="s">
@@ -4095,7 +4094,7 @@
       <c r="B126" t="s">
         <v>302</v>
       </c>
-      <c r="C126" t="s">
+      <c r="C126" s="4" t="s">
         <v>301</v>
       </c>
       <c r="D126" t="s">
@@ -4112,7 +4111,7 @@
       <c r="B127" t="s">
         <v>303</v>
       </c>
-      <c r="C127" t="s">
+      <c r="C127" s="4" t="s">
         <v>304</v>
       </c>
       <c r="D127" t="s">
@@ -4129,7 +4128,7 @@
       <c r="B128" t="s">
         <v>306</v>
       </c>
-      <c r="C128" t="s">
+      <c r="C128" s="4" t="s">
         <v>307</v>
       </c>
       <c r="D128" t="s">
@@ -4146,7 +4145,7 @@
       <c r="B129" t="s">
         <v>308</v>
       </c>
-      <c r="C129" t="s">
+      <c r="C129" s="4" t="s">
         <v>309</v>
       </c>
       <c r="D129" t="s">
@@ -4163,7 +4162,7 @@
       <c r="B130" t="s">
         <v>308</v>
       </c>
-      <c r="C130" t="s">
+      <c r="C130" s="4" t="s">
         <v>309</v>
       </c>
       <c r="D130" t="s">
@@ -4180,7 +4179,7 @@
       <c r="B131" t="s">
         <v>308</v>
       </c>
-      <c r="C131" t="s">
+      <c r="C131" s="4" t="s">
         <v>309</v>
       </c>
       <c r="D131" t="s">
@@ -4197,7 +4196,7 @@
       <c r="B132" t="s">
         <v>308</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C132" s="4" t="s">
         <v>309</v>
       </c>
       <c r="D132" t="s">
@@ -4214,7 +4213,7 @@
       <c r="B133" t="s">
         <v>310</v>
       </c>
-      <c r="C133" t="s">
+      <c r="C133" s="4" t="s">
         <v>311</v>
       </c>
       <c r="D133" t="s">
@@ -4231,7 +4230,7 @@
       <c r="B134" t="s">
         <v>313</v>
       </c>
-      <c r="C134" t="s">
+      <c r="C134" s="4" t="s">
         <v>312</v>
       </c>
       <c r="D134" t="s">
@@ -4248,7 +4247,7 @@
       <c r="B135" t="s">
         <v>315</v>
       </c>
-      <c r="C135" t="s">
+      <c r="C135" s="4" t="s">
         <v>316</v>
       </c>
       <c r="D135" t="s">
@@ -4265,7 +4264,7 @@
       <c r="B136" t="s">
         <v>318</v>
       </c>
-      <c r="C136" t="s">
+      <c r="C136" s="4" t="s">
         <v>319</v>
       </c>
       <c r="D136" t="s">
@@ -4282,7 +4281,7 @@
       <c r="B137" t="s">
         <v>321</v>
       </c>
-      <c r="C137" t="s">
+      <c r="C137" s="4" t="s">
         <v>322</v>
       </c>
       <c r="D137" t="s">
@@ -4299,7 +4298,7 @@
       <c r="B138" t="s">
         <v>324</v>
       </c>
-      <c r="C138" t="s">
+      <c r="C138" s="4" t="s">
         <v>325</v>
       </c>
       <c r="D138" t="s">
@@ -4316,7 +4315,7 @@
       <c r="B139" t="s">
         <v>327</v>
       </c>
-      <c r="C139" t="s">
+      <c r="C139" s="4" t="s">
         <v>328</v>
       </c>
       <c r="D139" t="s">
@@ -4333,7 +4332,7 @@
       <c r="B140" t="s">
         <v>330</v>
       </c>
-      <c r="C140" t="s">
+      <c r="C140" s="4" t="s">
         <v>331</v>
       </c>
       <c r="D140" t="s">
@@ -4350,7 +4349,7 @@
       <c r="B141" t="s">
         <v>330</v>
       </c>
-      <c r="C141" t="s">
+      <c r="C141" s="4" t="s">
         <v>331</v>
       </c>
       <c r="D141" t="s">
@@ -4367,7 +4366,7 @@
       <c r="B142" t="s">
         <v>333</v>
       </c>
-      <c r="C142" t="s">
+      <c r="C142" s="4" t="s">
         <v>334</v>
       </c>
       <c r="D142" t="s">
@@ -4384,7 +4383,7 @@
       <c r="B143" t="s">
         <v>336</v>
       </c>
-      <c r="C143" t="s">
+      <c r="C143" s="4" t="s">
         <v>337</v>
       </c>
       <c r="D143" t="s">
@@ -4401,7 +4400,7 @@
       <c r="B144" t="s">
         <v>338</v>
       </c>
-      <c r="C144" t="s">
+      <c r="C144" s="4" t="s">
         <v>339</v>
       </c>
       <c r="D144" t="s">
@@ -4418,7 +4417,7 @@
       <c r="B145" t="s">
         <v>341</v>
       </c>
-      <c r="C145" t="s">
+      <c r="C145" s="4" t="s">
         <v>342</v>
       </c>
       <c r="D145" t="s">
@@ -4435,7 +4434,7 @@
       <c r="B146" t="s">
         <v>344</v>
       </c>
-      <c r="C146" t="s">
+      <c r="C146" s="4" t="s">
         <v>345</v>
       </c>
       <c r="D146" t="s">
@@ -4452,7 +4451,7 @@
       <c r="B147" t="s">
         <v>347</v>
       </c>
-      <c r="C147" t="s">
+      <c r="C147" s="4" t="s">
         <v>348</v>
       </c>
       <c r="D147" t="s">
@@ -4469,7 +4468,7 @@
       <c r="B148" t="s">
         <v>349</v>
       </c>
-      <c r="C148" t="s">
+      <c r="C148" s="4" t="s">
         <v>350</v>
       </c>
       <c r="D148" t="s">
@@ -4486,7 +4485,7 @@
       <c r="B149" t="s">
         <v>351</v>
       </c>
-      <c r="C149" t="s">
+      <c r="C149" s="4" t="s">
         <v>352</v>
       </c>
       <c r="D149" t="s">
@@ -4503,7 +4502,7 @@
       <c r="B150" t="s">
         <v>354</v>
       </c>
-      <c r="C150" t="s">
+      <c r="C150" s="4" t="s">
         <v>355</v>
       </c>
       <c r="D150" t="s">
@@ -4520,7 +4519,7 @@
       <c r="B151" t="s">
         <v>356</v>
       </c>
-      <c r="C151" t="s">
+      <c r="C151" s="4" t="s">
         <v>357</v>
       </c>
       <c r="D151" t="s">
@@ -4537,7 +4536,7 @@
       <c r="B152" t="s">
         <v>358</v>
       </c>
-      <c r="C152" t="s">
+      <c r="C152" s="4" t="s">
         <v>359</v>
       </c>
       <c r="D152" t="s">
@@ -4554,7 +4553,7 @@
       <c r="B153" t="s">
         <v>358</v>
       </c>
-      <c r="C153" t="s">
+      <c r="C153" s="4" t="s">
         <v>359</v>
       </c>
       <c r="D153" t="s">
@@ -4571,7 +4570,7 @@
       <c r="B154" t="s">
         <v>361</v>
       </c>
-      <c r="C154" t="s">
+      <c r="C154" s="4" t="s">
         <v>362</v>
       </c>
       <c r="D154" t="s">
@@ -4588,7 +4587,7 @@
       <c r="B155" t="s">
         <v>363</v>
       </c>
-      <c r="C155" t="s">
+      <c r="C155" s="4" t="s">
         <v>364</v>
       </c>
       <c r="D155" t="s">
@@ -4605,7 +4604,7 @@
       <c r="B156" t="s">
         <v>366</v>
       </c>
-      <c r="C156" t="s">
+      <c r="C156" s="4" t="s">
         <v>367</v>
       </c>
       <c r="D156" t="s">
@@ -4622,7 +4621,7 @@
       <c r="B157" t="s">
         <v>368</v>
       </c>
-      <c r="C157" t="s">
+      <c r="C157" s="4" t="s">
         <v>369</v>
       </c>
       <c r="D157" t="s">
@@ -4639,7 +4638,7 @@
       <c r="B158" t="s">
         <v>370</v>
       </c>
-      <c r="C158" t="s">
+      <c r="C158" s="4" t="s">
         <v>371</v>
       </c>
       <c r="D158" t="s">
@@ -4656,7 +4655,7 @@
       <c r="B159" t="s">
         <v>373</v>
       </c>
-      <c r="C159" t="s">
+      <c r="C159" s="4" t="s">
         <v>374</v>
       </c>
       <c r="D159" t="s">
@@ -4673,7 +4672,7 @@
       <c r="B160" t="s">
         <v>376</v>
       </c>
-      <c r="C160" t="s">
+      <c r="C160" s="4" t="s">
         <v>377</v>
       </c>
       <c r="D160" t="s">
@@ -4690,7 +4689,7 @@
       <c r="B161" t="s">
         <v>379</v>
       </c>
-      <c r="C161" t="s">
+      <c r="C161" s="4" t="s">
         <v>380</v>
       </c>
       <c r="D161" t="s">
@@ -4707,7 +4706,7 @@
       <c r="B162" t="s">
         <v>381</v>
       </c>
-      <c r="C162" t="s">
+      <c r="C162" s="4" t="s">
         <v>382</v>
       </c>
       <c r="D162" t="s">
@@ -4724,7 +4723,7 @@
       <c r="B163" t="s">
         <v>384</v>
       </c>
-      <c r="C163" t="s">
+      <c r="C163" s="4" t="s">
         <v>385</v>
       </c>
       <c r="D163" t="s">
@@ -4741,7 +4740,7 @@
       <c r="B164" t="s">
         <v>386</v>
       </c>
-      <c r="C164" t="s">
+      <c r="C164" s="4" t="s">
         <v>387</v>
       </c>
       <c r="D164" t="s">
@@ -4758,7 +4757,7 @@
       <c r="B165" t="s">
         <v>389</v>
       </c>
-      <c r="C165" t="s">
+      <c r="C165" s="4" t="s">
         <v>390</v>
       </c>
       <c r="D165" t="s">
@@ -4775,7 +4774,7 @@
       <c r="B166" t="s">
         <v>391</v>
       </c>
-      <c r="C166" t="s">
+      <c r="C166" s="4" t="s">
         <v>392</v>
       </c>
       <c r="D166" t="s">
@@ -4792,7 +4791,7 @@
       <c r="B167" t="s">
         <v>394</v>
       </c>
-      <c r="C167" t="s">
+      <c r="C167" s="4" t="s">
         <v>395</v>
       </c>
       <c r="D167" t="s">
@@ -4809,7 +4808,7 @@
       <c r="B168" t="s">
         <v>396</v>
       </c>
-      <c r="C168" t="s">
+      <c r="C168" s="4" t="s">
         <v>397</v>
       </c>
       <c r="D168" t="s">
@@ -4826,7 +4825,7 @@
       <c r="B169" t="s">
         <v>399</v>
       </c>
-      <c r="C169" t="s">
+      <c r="C169" s="4" t="s">
         <v>400</v>
       </c>
       <c r="D169" t="s">
@@ -4843,7 +4842,7 @@
       <c r="B170" t="s">
         <v>402</v>
       </c>
-      <c r="C170" t="s">
+      <c r="C170" s="4" t="s">
         <v>403</v>
       </c>
       <c r="D170" t="s">
@@ -4860,7 +4859,7 @@
       <c r="B171" t="s">
         <v>404</v>
       </c>
-      <c r="C171" t="s">
+      <c r="C171" s="4" t="s">
         <v>405</v>
       </c>
       <c r="D171" t="s">
@@ -4877,7 +4876,7 @@
       <c r="B172" t="s">
         <v>406</v>
       </c>
-      <c r="C172" t="s">
+      <c r="C172" s="4" t="s">
         <v>407</v>
       </c>
       <c r="D172" t="s">
@@ -4894,7 +4893,7 @@
       <c r="B173" t="s">
         <v>408</v>
       </c>
-      <c r="C173" t="s">
+      <c r="C173" s="4" t="s">
         <v>409</v>
       </c>
       <c r="D173" t="s">
@@ -4911,7 +4910,7 @@
       <c r="B174" t="s">
         <v>410</v>
       </c>
-      <c r="C174" t="s">
+      <c r="C174" s="4" t="s">
         <v>411</v>
       </c>
       <c r="D174" t="s">
@@ -4928,7 +4927,7 @@
       <c r="B175" t="s">
         <v>412</v>
       </c>
-      <c r="C175" t="s">
+      <c r="C175" s="4" t="s">
         <v>413</v>
       </c>
       <c r="D175" t="s">
@@ -4945,7 +4944,7 @@
       <c r="B176" t="s">
         <v>414</v>
       </c>
-      <c r="C176" t="s">
+      <c r="C176" s="4" t="s">
         <v>415</v>
       </c>
       <c r="D176" t="s">
@@ -4962,7 +4961,7 @@
       <c r="B177" t="s">
         <v>417</v>
       </c>
-      <c r="C177" t="s">
+      <c r="C177" s="4" t="s">
         <v>418</v>
       </c>
       <c r="D177" t="s">
@@ -4979,7 +4978,7 @@
       <c r="B178" t="s">
         <v>419</v>
       </c>
-      <c r="C178" t="s">
+      <c r="C178" s="4" t="s">
         <v>420</v>
       </c>
       <c r="D178" t="s">
@@ -4996,7 +4995,7 @@
       <c r="B179" t="s">
         <v>422</v>
       </c>
-      <c r="C179" t="s">
+      <c r="C179" s="4" t="s">
         <v>423</v>
       </c>
       <c r="D179" t="s">
@@ -5013,7 +5012,7 @@
       <c r="B180" t="s">
         <v>424</v>
       </c>
-      <c r="C180" t="s">
+      <c r="C180" s="4" t="s">
         <v>425</v>
       </c>
       <c r="D180" t="s">
@@ -5030,7 +5029,7 @@
       <c r="B181" t="s">
         <v>426</v>
       </c>
-      <c r="C181" t="s">
+      <c r="C181" s="4" t="s">
         <v>427</v>
       </c>
       <c r="D181" t="s">
@@ -5047,7 +5046,7 @@
       <c r="B182" t="s">
         <v>429</v>
       </c>
-      <c r="C182" t="s">
+      <c r="C182" s="4" t="s">
         <v>430</v>
       </c>
       <c r="D182" t="s">
@@ -5064,7 +5063,7 @@
       <c r="B183" t="s">
         <v>431</v>
       </c>
-      <c r="C183" t="s">
+      <c r="C183" s="4" t="s">
         <v>432</v>
       </c>
       <c r="D183" t="s">
@@ -5081,7 +5080,7 @@
       <c r="B184" t="s">
         <v>434</v>
       </c>
-      <c r="C184" t="s">
+      <c r="C184" s="4" t="s">
         <v>435</v>
       </c>
       <c r="D184" t="s">
@@ -5098,7 +5097,7 @@
       <c r="B185" t="s">
         <v>436</v>
       </c>
-      <c r="C185" t="s">
+      <c r="C185" s="4" t="s">
         <v>437</v>
       </c>
       <c r="D185" t="s">
@@ -5115,7 +5114,7 @@
       <c r="B186" t="s">
         <v>438</v>
       </c>
-      <c r="C186" t="s">
+      <c r="C186" s="4" t="s">
         <v>439</v>
       </c>
       <c r="D186" t="s">
@@ -5132,7 +5131,7 @@
       <c r="B187" t="s">
         <v>438</v>
       </c>
-      <c r="C187" t="s">
+      <c r="C187" s="4" t="s">
         <v>439</v>
       </c>
       <c r="D187" t="s">
@@ -5149,7 +5148,7 @@
       <c r="B188" t="s">
         <v>440</v>
       </c>
-      <c r="C188" t="s">
+      <c r="C188" s="4" t="s">
         <v>441</v>
       </c>
       <c r="D188" t="s">
@@ -5166,7 +5165,7 @@
       <c r="B189" t="s">
         <v>442</v>
       </c>
-      <c r="C189" t="s">
+      <c r="C189" s="4" t="s">
         <v>443</v>
       </c>
       <c r="D189" t="s">
@@ -5183,7 +5182,7 @@
       <c r="B190" t="s">
         <v>445</v>
       </c>
-      <c r="C190" t="s">
+      <c r="C190" s="4" t="s">
         <v>446</v>
       </c>
       <c r="D190" t="s">
@@ -5200,7 +5199,7 @@
       <c r="B191" t="s">
         <v>447</v>
       </c>
-      <c r="C191" t="s">
+      <c r="C191" s="4" t="s">
         <v>448</v>
       </c>
       <c r="D191" t="s">
@@ -5217,7 +5216,7 @@
       <c r="B192" t="s">
         <v>450</v>
       </c>
-      <c r="C192" t="s">
+      <c r="C192" s="4" t="s">
         <v>451</v>
       </c>
       <c r="D192" t="s">
@@ -5234,7 +5233,7 @@
       <c r="B193" t="s">
         <v>452</v>
       </c>
-      <c r="C193" t="s">
+      <c r="C193" s="4" t="s">
         <v>453</v>
       </c>
       <c r="D193" t="s">
@@ -5251,7 +5250,7 @@
       <c r="B194" t="s">
         <v>454</v>
       </c>
-      <c r="C194" t="s">
+      <c r="C194" s="4" t="s">
         <v>455</v>
       </c>
       <c r="D194" t="s">
@@ -5268,7 +5267,7 @@
       <c r="B195" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="C195" s="2">
+      <c r="C195" s="4">
         <v>57247761200</v>
       </c>
       <c r="D195" s="2" t="s">
@@ -5286,7 +5285,7 @@
       <c r="B196" t="s">
         <v>458</v>
       </c>
-      <c r="C196" t="s">
+      <c r="C196" s="4" t="s">
         <v>459</v>
       </c>
       <c r="D196" t="s">
@@ -5303,7 +5302,7 @@
       <c r="B197" t="s">
         <v>460</v>
       </c>
-      <c r="C197" t="s">
+      <c r="C197" s="4" t="s">
         <v>461</v>
       </c>
       <c r="D197" t="s">
@@ -5320,7 +5319,7 @@
       <c r="B198" t="s">
         <v>463</v>
       </c>
-      <c r="C198" t="s">
+      <c r="C198" s="4" t="s">
         <v>464</v>
       </c>
       <c r="D198" t="s">
@@ -5337,7 +5336,7 @@
       <c r="B199" t="s">
         <v>463</v>
       </c>
-      <c r="C199" t="s">
+      <c r="C199" s="4" t="s">
         <v>464</v>
       </c>
       <c r="D199" t="s">
@@ -5354,7 +5353,7 @@
       <c r="B200" t="s">
         <v>463</v>
       </c>
-      <c r="C200" t="s">
+      <c r="C200" s="4" t="s">
         <v>464</v>
       </c>
       <c r="D200" t="s">
@@ -5371,7 +5370,7 @@
       <c r="B201" t="s">
         <v>463</v>
       </c>
-      <c r="C201" t="s">
+      <c r="C201" s="4" t="s">
         <v>464</v>
       </c>
       <c r="D201" t="s">
@@ -5388,7 +5387,7 @@
       <c r="B202" t="s">
         <v>463</v>
       </c>
-      <c r="C202" t="s">
+      <c r="C202" s="4" t="s">
         <v>464</v>
       </c>
       <c r="D202" t="s">
@@ -5405,7 +5404,7 @@
       <c r="B203" t="s">
         <v>466</v>
       </c>
-      <c r="C203" t="s">
+      <c r="C203" s="4" t="s">
         <v>467</v>
       </c>
       <c r="D203" t="s">
@@ -5422,7 +5421,7 @@
       <c r="B204" t="s">
         <v>468</v>
       </c>
-      <c r="C204" t="s">
+      <c r="C204" s="4" t="s">
         <v>469</v>
       </c>
       <c r="D204" t="s">
@@ -5439,7 +5438,7 @@
       <c r="B205" t="s">
         <v>470</v>
       </c>
-      <c r="C205" t="s">
+      <c r="C205" s="4" t="s">
         <v>471</v>
       </c>
       <c r="D205" t="s">
@@ -5456,7 +5455,7 @@
       <c r="B206" t="s">
         <v>472</v>
       </c>
-      <c r="C206" t="s">
+      <c r="C206" s="4" t="s">
         <v>473</v>
       </c>
       <c r="D206" t="s">
@@ -5473,7 +5472,7 @@
       <c r="B207" t="s">
         <v>475</v>
       </c>
-      <c r="C207" t="s">
+      <c r="C207" s="4" t="s">
         <v>476</v>
       </c>
       <c r="D207" t="s">
@@ -5490,7 +5489,7 @@
       <c r="B208" t="s">
         <v>475</v>
       </c>
-      <c r="C208" t="s">
+      <c r="C208" s="4" t="s">
         <v>476</v>
       </c>
       <c r="D208" t="s">
@@ -5507,7 +5506,7 @@
       <c r="B209" t="s">
         <v>477</v>
       </c>
-      <c r="C209" t="s">
+      <c r="C209" s="4" t="s">
         <v>478</v>
       </c>
       <c r="D209" t="s">
@@ -5524,7 +5523,7 @@
       <c r="B210" t="s">
         <v>480</v>
       </c>
-      <c r="C210" t="s">
+      <c r="C210" s="4" t="s">
         <v>481</v>
       </c>
       <c r="D210" t="s">
@@ -5544,17 +5543,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="e5c03532-ca69-4eca-baa0-f6c5bcd6c094" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="57a8e7ef-4f20-414a-a2d4-5a9bd8d86111">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CF80A72F950AB44BBD3F7B6758C7B51D" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b571fce440275f0622ff001093cb92ee">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="57a8e7ef-4f20-414a-a2d4-5a9bd8d86111" xmlns:ns3="e5c03532-ca69-4eca-baa0-f6c5bcd6c094" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f94315dc4d15cb105dea15baff015bd0" ns2:_="" ns3:_="">
     <xsd:import namespace="57a8e7ef-4f20-414a-a2d4-5a9bd8d86111"/>
@@ -5773,6 +5761,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="e5c03532-ca69-4eca-baa0-f6c5bcd6c094" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="57a8e7ef-4f20-414a-a2d4-5a9bd8d86111">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -5783,17 +5782,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D06896F-B9E0-4410-A772-3EB1E1F27771}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e5c03532-ca69-4eca-baa0-f6c5bcd6c094"/>
-    <ds:schemaRef ds:uri="57a8e7ef-4f20-414a-a2d4-5a9bd8d86111"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC6D2546-0A27-4146-AB1D-352EBB352AFD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5812,6 +5800,17 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D06896F-B9E0-4410-A772-3EB1E1F27771}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e5c03532-ca69-4eca-baa0-f6c5bcd6c094"/>
+    <ds:schemaRef ds:uri="57a8e7ef-4f20-414a-a2d4-5a9bd8d86111"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECF2A7D3-433A-4455-B95D-DBA96B4DDA19}">
   <ds:schemaRefs>

--- a/2021.09.23 Author_Affiliations.xlsx
+++ b/2021.09.23 Author_Affiliations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\Documents\SNA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D79673-0281-4B53-8880-BC459B717DEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D33E8C7-9BA6-491E-A343-E6F2A731FBC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14640" yWindow="2040" windowWidth="14025" windowHeight="17145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="308">
   <si>
     <t>pmid</t>
   </si>
@@ -47,9 +47,6 @@
     <t>Acri T</t>
   </si>
   <si>
-    <t>8285535700</t>
-  </si>
-  <si>
     <t>Public Health Management Corporation, Philadelphia, PA, United States</t>
   </si>
   <si>
@@ -62,27 +59,18 @@
     <t>Akintobi T</t>
   </si>
   <si>
-    <t>6506993064</t>
-  </si>
-  <si>
     <t>Department of Community Health &amp; Preventive Medicine, Morehouse School of Medicine, Atlanta, Georgia, Georgia</t>
   </si>
   <si>
     <t>Altomare NJ</t>
   </si>
   <si>
-    <t>57220026426</t>
-  </si>
-  <si>
     <t>Department of Medicine, Rutgers Robert Wood Johnson Medical School, New Brunswick, NJ  08901, United States</t>
   </si>
   <si>
     <t>Amjad A</t>
   </si>
   <si>
-    <t>57223310024</t>
-  </si>
-  <si>
     <t>West Virginia Department of Health and Human Resources CharlestonWV, United States</t>
   </si>
   <si>
@@ -92,102 +80,66 @@
     <t>Atkins A</t>
   </si>
   <si>
-    <t>57216579290</t>
-  </si>
-  <si>
     <t>Aung H</t>
   </si>
   <si>
-    <t>7004687497</t>
-  </si>
-  <si>
     <t>Case Western Reserve University School of Medicine, Cleveland, OH, United States</t>
   </si>
   <si>
     <t>Balazs AB</t>
   </si>
   <si>
-    <t>7101867957</t>
-  </si>
-  <si>
     <t>Ragon Institute of Massachusetts General Hospital, Massachusetts Institute of Technology and Harvard, Cambridge, MA, United States</t>
   </si>
   <si>
     <t>Baldenweck M</t>
   </si>
   <si>
-    <t>57247975600</t>
-  </si>
-  <si>
     <t>Department of Pediatrics, Division of Pediatric Infectious Diseases, Washington University in St. Louis, St. Louis, MO, USA</t>
   </si>
   <si>
     <t>Balls-Berry JE</t>
   </si>
   <si>
-    <t>36678672500</t>
-  </si>
-  <si>
     <t>Department of Neurology, Division of Memory and Aging, Washington University in St. Louis, St. Louis, MO, United States</t>
   </si>
   <si>
     <t>Bardenheier BH</t>
   </si>
   <si>
-    <t>6603429198</t>
-  </si>
-  <si>
     <t>Department of Health Services, Policy, and Practice, Brown University School of Public Health, Providence, RI, United States</t>
   </si>
   <si>
     <t>Barrett ES</t>
   </si>
   <si>
-    <t>36850389900</t>
-  </si>
-  <si>
     <t>Department of Biostatistics and Epidemiology, Rutgers School of Public Health, Rutgers Environmental and Occupational Health Sciences Institute, Piscataway, NJ, United States</t>
   </si>
   <si>
     <t>Bauer C</t>
   </si>
   <si>
-    <t>56992137400</t>
-  </si>
-  <si>
     <t>Department of Biostatistics and Data Science, School of Public Health, University of Texas Health Science Center at Houston, Houston, TX, United States</t>
   </si>
   <si>
     <t>Bednarczyk RA</t>
   </si>
   <si>
-    <t>26421597500</t>
-  </si>
-  <si>
     <t>Department of Epidemiology, Rollins School of Public Health, Emory University, Atlanta, Georgia, Georgia, Hubert Department of Global Health, Rollins School of Public Health, Emory University, Atlanta, Georgia, Georgia</t>
   </si>
   <si>
     <t>Begay M</t>
   </si>
   <si>
-    <t>57225882475</t>
-  </si>
-  <si>
     <t>Division of Pulmonary, Critical Care, Sleep and Allergy, School of Medicine, University of New Mexico, Albuquerque, NM, United States, New Mexico Veterans Affairs Health Care Services, 111A-Pulm, 1501 San Pedro SE, Albuquerque, NM  87108, United States</t>
   </si>
   <si>
     <t>Belli HM</t>
   </si>
   <si>
-    <t>57209365128</t>
-  </si>
-  <si>
     <t>Department of Population Health, New York University Grossman School of Medicine, New York, United States</t>
   </si>
   <si>
-    <t>20336747600</t>
-  </si>
-  <si>
     <t>Hebrew SeniorLife, Hinda and Arthur Marcus Institute for Aging Research, &amp; Harvard Medical School, Boston, MA, United States</t>
   </si>
   <si>
@@ -206,15 +158,9 @@
     <t>Bethea L</t>
   </si>
   <si>
-    <t>57234670600</t>
-  </si>
-  <si>
     <t>Genesis HealthCare, Kennett Square, PA, United States</t>
   </si>
   <si>
-    <t>57204475312</t>
-  </si>
-  <si>
     <t>Division of Infectious Diseases, University of Pennsylvania Perelman, School of Medicine, University of Pennsylvania, 3400 Spruce St, 3 Silverstein Suite E, Philadelphia, PA  19104, United States</t>
   </si>
   <si>
@@ -224,15 +170,9 @@
     <t>Bigelow BF</t>
   </si>
   <si>
-    <t>57217220824</t>
-  </si>
-  <si>
     <t>Department of Medicine, Johns Hopkins University School of Medicine, Baltimore, MD, United States</t>
   </si>
   <si>
-    <t>57217117866</t>
-  </si>
-  <si>
     <t>Genesis Healthcare, Kennett SquarePA, United States</t>
   </si>
   <si>
@@ -242,9 +182,6 @@
     <t>Blaser MJ</t>
   </si>
   <si>
-    <t>35452136000</t>
-  </si>
-  <si>
     <t>Department of Medicine, Rutgers Robert Wood Johnson Medical School, Rutgers Center for Advance Biotechnology and Medicine, New Brunswick, NJ, United States, Department of and Pathology, Rutgers Robert Wood Johnson Medical School, Rutgers Center for Advance Biotechnology and Medicine, New Brunswick, NJ, United States</t>
   </si>
   <si>
@@ -254,87 +191,54 @@
     <t>Bono K</t>
   </si>
   <si>
-    <t>57247975700</t>
-  </si>
-  <si>
     <t>Booth R</t>
   </si>
   <si>
-    <t>57192937828</t>
-  </si>
-  <si>
     <t>Glytec, Waltham, MA, United States</t>
   </si>
   <si>
     <t>Brady K</t>
   </si>
   <si>
-    <t>34871585500</t>
-  </si>
-  <si>
     <t>Philadelphia Department of Public Health, AIDS Activities Coordinating Office, Philadelphia, PA, United States</t>
   </si>
   <si>
     <t>Brodsky VB</t>
   </si>
   <si>
-    <t>57247761300</t>
-  </si>
-  <si>
     <t>Department of Pathology and Immunology, Washington University in St. Louis, St. Louis, MO, USA</t>
   </si>
   <si>
     <t>Caburnay CA</t>
   </si>
   <si>
-    <t>6508155151</t>
-  </si>
-  <si>
     <t>Brown School of Social Work, Washington University in St. Louis, St. Louis, MO</t>
   </si>
   <si>
     <t>Cameron CM</t>
   </si>
   <si>
-    <t>8770762400</t>
-  </si>
-  <si>
     <t>Cameron MJ</t>
   </si>
   <si>
-    <t>7102724879</t>
-  </si>
-  <si>
     <t>Canaday DH</t>
   </si>
   <si>
-    <t>6701913563</t>
-  </si>
-  <si>
     <t>Case Western Reserve University School of Medicine, Cleveland, OH, United States, Geriatric Research, Education and Clinical Center, Cleveland Veterans Affairs Medical Center, Cleveland, OH, United States</t>
   </si>
   <si>
     <t>Carias L</t>
   </si>
   <si>
-    <t>6602882989</t>
-  </si>
-  <si>
     <t>Carter EB</t>
   </si>
   <si>
-    <t>55895259400</t>
-  </si>
-  <si>
     <t>Department of Obstetrics and Gynecology, Washington University in St. Louis School of Medicine, St. Louis, MO  63110, United States</t>
   </si>
   <si>
     <t>Catlett CL</t>
   </si>
   <si>
-    <t>8242550800</t>
-  </si>
-  <si>
     <t>Department of Emergency Medicine, Johns Hopkins University School of Medicine, Baltimore, MD, United States</t>
   </si>
   <si>
@@ -344,156 +248,93 @@
     <t>Ching LL</t>
   </si>
   <si>
-    <t>57192894008</t>
-  </si>
-  <si>
     <t>Department of Tropical Medicine, Medical Microbiology and Pharmacology, John A. Burns School of Medicine, University of Hawaii at Manoa, Honolulu, HI, United States, Pacific Center for Emerging Infectious Diseases, John A. Burns School of Medicine, University of Hawaii at Manoa, Honolulu, HI, United States</t>
   </si>
   <si>
     <t>Clark JM</t>
   </si>
   <si>
-    <t>57209403965</t>
-  </si>
-  <si>
     <t>Constantino JN</t>
   </si>
   <si>
-    <t>7003357598</t>
-  </si>
-  <si>
     <t>Department of Psychiatry, Washington University in St. Louis, St. Louis, MO</t>
   </si>
   <si>
     <t>Crabtree BF</t>
   </si>
   <si>
-    <t>7006733030</t>
-  </si>
-  <si>
     <t>Department of Family Medicine and Community Health, Rutgers Robert Wood Johnson Medical School, New Brunswick, NJ, United States</t>
   </si>
   <si>
     <t>Crowe J</t>
   </si>
   <si>
-    <t>57216772894</t>
-  </si>
-  <si>
     <t>de la Cerda I</t>
   </si>
   <si>
-    <t>57258346000</t>
-  </si>
-  <si>
     <t>Department of Epidemiology, Human Genetics and Environmental Science, School of Public Health, University of Texas Health Science Center at Houston, Brownsville, TX, United States</t>
   </si>
   <si>
     <t>Devance D</t>
   </si>
   <si>
-    <t>57226121039</t>
-  </si>
-  <si>
     <t>Rutgers, State University of New Jersey, University-Community Partnerships, Newark, United States</t>
   </si>
   <si>
     <t>Dougherty NL</t>
   </si>
   <si>
-    <t>55978805000</t>
-  </si>
-  <si>
     <t>Dubois JM</t>
   </si>
   <si>
-    <t>57194406801</t>
-  </si>
-  <si>
     <t>Department of Medicine, Washington University in St. Louis, St. Louis, MO, USA</t>
   </si>
   <si>
     <t>Dugosh K</t>
   </si>
   <si>
-    <t>6506644120</t>
-  </si>
-  <si>
     <t>Fashaw S</t>
   </si>
   <si>
-    <t>57191069525</t>
-  </si>
-  <si>
     <t>Health Services, Policy and Practice, Brown University School of Public Health, Providence, RI, United States</t>
   </si>
   <si>
     <t>Feifer RA</t>
   </si>
   <si>
-    <t>6603005716</t>
-  </si>
-  <si>
     <t>Fernandez ME</t>
   </si>
   <si>
-    <t>34769828800</t>
-  </si>
-  <si>
     <t>Department of Health Promotion and Behavior Sciences, School of Public Health, University of Texas Health Science Center at Houston, Houston, TX, United States</t>
   </si>
   <si>
     <t>Ferrante JM</t>
   </si>
   <si>
-    <t>35737232200</t>
-  </si>
-  <si>
     <t>Fisher-Hoch S</t>
   </si>
   <si>
-    <t>57205524437</t>
-  </si>
-  <si>
     <t>Fishman J</t>
   </si>
   <si>
-    <t>7202655127</t>
-  </si>
-  <si>
     <t>Department of Psychiatry, University of Pennsylvania Perelman, School of Medicine, Philadelphia, United States</t>
   </si>
   <si>
     <t>Flores-Miller A</t>
   </si>
   <si>
-    <t>55894087200</t>
-  </si>
-  <si>
     <t>Fritz SA</t>
   </si>
   <si>
-    <t>24504213100</t>
-  </si>
-  <si>
     <t>Fujimoto AB</t>
   </si>
   <si>
-    <t>57218675513</t>
-  </si>
-  <si>
     <t>School of Industrial and Systems Engineering, Georgia Institute of Technology, 755 Ferst Dr. NW, Atlanta, GA  30332, United States</t>
   </si>
   <si>
     <t>Garrett V</t>
   </si>
   <si>
-    <t>57216773875</t>
-  </si>
-  <si>
-    <t>7102617491</t>
-  </si>
-  <si>
     <t>Center for Health Policy Evaluation in Long-Term Care, American Health Care Association, Washington, DC, United States</t>
   </si>
   <si>
@@ -506,18 +347,12 @@
     <t>Golden SH</t>
   </si>
   <si>
-    <t>7102653518</t>
-  </si>
-  <si>
     <t>Department of Medicine, Johns Hopkins University School of Medicine, Baltimore, MD, United States, Johns Hopkins Medicine Office of Diversity, Inclusion and Health Equity, Baltimore, MD, United States</t>
   </si>
   <si>
     <t>Gotto GS</t>
   </si>
   <si>
-    <t>55666330900</t>
-  </si>
-  <si>
     <t>Institute for Human Development, University of Missouri-Kansas City, Kansas City, MO</t>
   </si>
   <si>
@@ -527,15 +362,9 @@
     <t>Gowda RC</t>
   </si>
   <si>
-    <t>57220023616</t>
-  </si>
-  <si>
     <t>Department of Neurology, Rutgers Robert Wood Johnson Medical School, New Brunswick, NJ  08901, United States</t>
   </si>
   <si>
-    <t>7003966799</t>
-  </si>
-  <si>
     <t>Brown University School of Public Health, Providence, RI, United States, Warren Alpert Medical School, Brown University, Providence, RI, United States, Providence Veterans Administration Medical Center, Center on Innovation in Long-Term Services and Supports, Providence, RI, United States</t>
   </si>
   <si>
@@ -554,33 +383,21 @@
     <t>Gross R</t>
   </si>
   <si>
-    <t>57203503067</t>
-  </si>
-  <si>
     <t>Guajardo E</t>
   </si>
   <si>
-    <t>57226609034</t>
-  </si>
-  <si>
     <t>Cameron County Public Health, San Benito, TX, United States</t>
   </si>
   <si>
     <t>Gurnett CA</t>
   </si>
   <si>
-    <t>6701464580</t>
-  </si>
-  <si>
     <t>Department of Neurology, Division of Pediatric and Developmental Neurology, Washington University in St. Louis, 660 S. Euclid Avenue Campus, Box 8111, St. Louis, MO  63110, United States</t>
   </si>
   <si>
     <t>Gutman R</t>
   </si>
   <si>
-    <t>35891847400</t>
-  </si>
-  <si>
     <t>Brown University School of Public Health, Providence, RI, United States</t>
   </si>
   <si>
@@ -590,33 +407,21 @@
     <t>Hale WD</t>
   </si>
   <si>
-    <t>56661885800</t>
-  </si>
-  <si>
     <t>Hammitt LL</t>
   </si>
   <si>
-    <t>35290709200</t>
-  </si>
-  <si>
     <t>Center for American Indian Health, Johns Hopkins Bloomberg School of Public Health, Shiprock, NM, United States</t>
   </si>
   <si>
     <t>Hanson LC</t>
   </si>
   <si>
-    <t>7201657480</t>
-  </si>
-  <si>
     <t>Division of Geriatric Medicine and Center for Aging and Health, University of North Carolina at Chapel Hill, School of Medicine, Chapel Hill, NC, United States</t>
   </si>
   <si>
     <t>Harrison J</t>
   </si>
   <si>
-    <t>57217341894</t>
-  </si>
-  <si>
     <t>Department of Health Services, Policy, and Practice, School of Public Health, Brown University, Providence, RI, United States</t>
   </si>
   <si>
@@ -626,48 +431,30 @@
     <t>He M</t>
   </si>
   <si>
-    <t>8842663900</t>
-  </si>
-  <si>
     <t>Department of Pathology and Immunology, Washington University in St. Louis School of Medicine, St. Louis, MO  63110, United States</t>
   </si>
   <si>
     <t>Head R</t>
   </si>
   <si>
-    <t>16180279600</t>
-  </si>
-  <si>
     <t>Department of Genetics, Washington University in St. Louis, St. Louis, MO, United States</t>
   </si>
   <si>
     <t>Hendricks B</t>
   </si>
   <si>
-    <t>57189017887</t>
-  </si>
-  <si>
     <t>West Virginia University, Department of Epidemiology, Morgantown, WV, United States, West Virginia Clinical and Translational Sciences Institute, Morgantown, WV, United States</t>
   </si>
   <si>
     <t>Herndon L</t>
   </si>
   <si>
-    <t>42661584300</t>
-  </si>
-  <si>
     <t>Hill D</t>
   </si>
   <si>
-    <t>57226101415</t>
-  </si>
-  <si>
     <t>Rutgers School of Public Affairs and Administration, University-Community Partnerships, Newark, NJ, United States</t>
   </si>
   <si>
-    <t>35558534100</t>
-  </si>
-  <si>
     <t>West Virginia Clinical and Translational Sciences Institute, Morgantown, WV, United States, West Virginia University School of Medicine, Morgantown, WV, United States</t>
   </si>
   <si>
@@ -677,129 +464,81 @@
     <t>Hotez PJ</t>
   </si>
   <si>
-    <t>7004958298</t>
-  </si>
-  <si>
     <t>Department of Pediatrics, National School of Tropical Medicine, Baylor College of Medicine, Texas Children's Hospital, Houston, United States, Department of Molecular Virology and Microbiology, National School of Tropical Medicine, Baylor College of Medicine, Texas Children's Hospital, Houston, United States</t>
   </si>
   <si>
     <t>Hsieh S-C</t>
   </si>
   <si>
-    <t>15044573600</t>
-  </si>
-  <si>
     <t>Hudson SV</t>
   </si>
   <si>
-    <t>7201375470</t>
-  </si>
-  <si>
     <t>Community</t>
   </si>
   <si>
     <t>Imbeah A</t>
   </si>
   <si>
-    <t>57218991877</t>
-  </si>
-  <si>
     <t>Jagannathan R</t>
   </si>
   <si>
-    <t>56911970000</t>
-  </si>
-  <si>
     <t>Emory University School of Medicine, Atlanta, GA, United States</t>
   </si>
   <si>
     <t>Jimenez ME</t>
   </si>
   <si>
-    <t>57198326551</t>
-  </si>
-  <si>
     <t>Department of Pediatrics, Rutgers Robert Wood Johnson Medical School, 89 French St, New Brunswick, NJ  08901, United States, Department of Family Medicine and Community Health, Rutgers Robert Wood Johnson Medical School, New Brunswick, NJ, United States</t>
   </si>
   <si>
     <t>Johnson KS</t>
   </si>
   <si>
-    <t>36552577100</t>
-  </si>
-  <si>
     <t>Department of Medicine, Duke University School of Medicine, Durham, NC, United States</t>
   </si>
   <si>
     <t>Joshi CS</t>
   </si>
   <si>
-    <t>57202968470</t>
-  </si>
-  <si>
     <t>Kakol M</t>
   </si>
   <si>
-    <t>54784459100</t>
-  </si>
-  <si>
     <t>Division of Pulmonary and Critical Care Medicine, Stanford University Medical Center, Stanford University, Stanford, CA, United States</t>
   </si>
   <si>
     <t>Kalb LG</t>
   </si>
   <si>
-    <t>36664663700</t>
-  </si>
-  <si>
     <t>Kennedy Krieger Institute, Johns Hopkins Bloomberg School of Public Health, Baltimore, MD, United States</t>
   </si>
   <si>
     <t>Kelley CJ</t>
   </si>
   <si>
-    <t>57216370590</t>
-  </si>
-  <si>
     <t>Keresztesy D</t>
   </si>
   <si>
-    <t>57223592557</t>
-  </si>
-  <si>
     <t>Keskinocak P</t>
   </si>
   <si>
-    <t>6603542392</t>
-  </si>
-  <si>
     <t>School of Industrial and Systems Engineering, Georgia Institute of Technology, 755 Ferst Dr. NW, Atlanta, GA  30332, United States, Department of Environmental Health, Rollins School of Public Health, Emory University, 1518 Clifton Rd. NE, Atlanta, GA  30322, United States</t>
   </si>
   <si>
     <t>Kimble W</t>
   </si>
   <si>
-    <t>57221505466</t>
-  </si>
-  <si>
     <t>West Virginia Clinical and Translational Sciences Institute, Morgantown, WV, United States</t>
   </si>
   <si>
     <t>King CL</t>
   </si>
   <si>
-    <t>57273541500</t>
-  </si>
-  <si>
     <t>Case Western Reserve University School of Medicine, Cleveland, OH, United States, Division of Infectious Diseases, Cleveland Veterans Affairs Medical Center, Cleveland, OH, United States</t>
   </si>
   <si>
     <t>Klonoff DC</t>
   </si>
   <si>
-    <t>7005932893</t>
-  </si>
-  <si>
     <t>Diabetes Research Institute, Mills-Peninsula Medical Center, San Mateo, CA, United States</t>
   </si>
   <si>
@@ -809,69 +548,42 @@
     <t>Kosar CM</t>
   </si>
   <si>
-    <t>56030099400</t>
-  </si>
-  <si>
     <t>Lai AM</t>
   </si>
   <si>
-    <t>30767629500</t>
-  </si>
-  <si>
     <t>Department of Medicine, Washington University in St. Louis, St. Louis, MO, United States</t>
   </si>
   <si>
     <t>Lam EC</t>
   </si>
   <si>
-    <t>57201197202</t>
-  </si>
-  <si>
     <t>Lazar MH</t>
   </si>
   <si>
-    <t>57220028740</t>
-  </si>
-  <si>
     <t>Lee M</t>
   </si>
   <si>
-    <t>55661493300</t>
-  </si>
-  <si>
     <t>Lima D</t>
   </si>
   <si>
-    <t>57201190256</t>
-  </si>
-  <si>
     <t>Department of Pediatrics, Rutgers Robert Wood Johnson Medical School, 89 French St, New Brunswick, NJ  08901, United States</t>
   </si>
   <si>
     <t>Liu J</t>
   </si>
   <si>
-    <t>57207916193</t>
-  </si>
-  <si>
     <t>Department of Surgery, Washington University in St. Louis, St. Louis, MO</t>
   </si>
   <si>
     <t>Loss MJ</t>
   </si>
   <si>
-    <t>57188962470</t>
-  </si>
-  <si>
     <t>Department of Dermatology, Johns Hopkins University School of Medicine, Baltimore, MD, United States</t>
   </si>
   <si>
     <t>Macenat M</t>
   </si>
   <si>
-    <t>57226103648</t>
-  </si>
-  <si>
     <t>Maricque BB</t>
   </si>
   <si>
@@ -881,21 +593,12 @@
     <t>Martinez Alcaraz E</t>
   </si>
   <si>
-    <t>57199725284</t>
-  </si>
-  <si>
     <t>McCann NS</t>
   </si>
   <si>
-    <t>57222579702</t>
-  </si>
-  <si>
     <t>Johns Hopkins Health System, Johns Hopkins Medicine, Baltimore, MD, United States</t>
   </si>
   <si>
-    <t>36108886100</t>
-  </si>
-  <si>
     <t>Brown University School of Public Health, Providence, RI, United States, Providence Veterans Administration Medical Center, Center on Innovation in Long-Term Services and Supports, Providence, RI, United States</t>
   </si>
   <si>
@@ -908,72 +611,39 @@
     <t>McCormick J</t>
   </si>
   <si>
-    <t>7202729955</t>
-  </si>
-  <si>
     <t>McDonnell EP</t>
   </si>
   <si>
-    <t>57220036794</t>
-  </si>
-  <si>
     <t>McFarland R</t>
   </si>
   <si>
-    <t>57102893100</t>
-  </si>
-  <si>
     <t>McKay VR</t>
   </si>
   <si>
-    <t>56075055300</t>
-  </si>
-  <si>
     <t>Melish ME</t>
   </si>
   <si>
-    <t>57165902200</t>
-  </si>
-  <si>
     <t>Department of Tropical Medicine, Medical Microbiology and Pharmacology, John A. Burns School of Medicine, University of Hawaii at Manoa, Honolulu, HI, United States, Pacific Center for Emerging Infectious Diseases, John A. Burns School of Medicine, University of Hawaii at Manoa, Honolulu, HI, United States, Kapi’olani Medical Center for Women and Children, Honolulu, HI, United States, Department of Pediatrics, John A. Burns School of Medicine, Honolulu, HI, United States</t>
   </si>
   <si>
-    <t>55586521200</t>
-  </si>
-  <si>
     <t>Messler JC</t>
   </si>
   <si>
     <t>Montoya A</t>
   </si>
   <si>
-    <t>54780229200</t>
-  </si>
-  <si>
     <t>Department of Medicine, University of Michigan School of Medicine, Ann Arbor, MI, United States</t>
   </si>
   <si>
     <t>Moore AM</t>
   </si>
   <si>
-    <t>57222575888</t>
-  </si>
-  <si>
     <t>Mor V</t>
   </si>
   <si>
-    <t>7102090811</t>
-  </si>
-  <si>
     <t>Morris SM</t>
   </si>
   <si>
-    <t>57191870727</t>
-  </si>
-  <si>
-    <t>54781732100</t>
-  </si>
-  <si>
     <t>Mostafa HH</t>
   </si>
   <si>
@@ -983,426 +653,255 @@
     <t>Mueller NB</t>
   </si>
   <si>
-    <t>57219090924</t>
-  </si>
-  <si>
     <t>Brown School Evaluation Center, Washington University in St Louis, St Louis, MO, United States</t>
   </si>
   <si>
     <t>Myers LS</t>
   </si>
   <si>
-    <t>57247761400</t>
-  </si>
-  <si>
     <t>Kennedy Krieger Institute, Baltimore, MD</t>
   </si>
   <si>
     <t>Myles L</t>
   </si>
   <si>
-    <t>57222561060</t>
-  </si>
-  <si>
     <t>Center for Health Policy and Evaluation in LTC, American Health Care Association, Washington, DC, United States</t>
   </si>
   <si>
     <t>Mysorekar IU</t>
   </si>
   <si>
-    <t>6507498358</t>
-  </si>
-  <si>
     <t>Department of Obstetrics and Gynecology, Washington University in St. Louis School of Medicine, St. Louis, MO  63110, United States, Department of Pathology and Immunology, Washington University in St. Louis School of Medicine, St. Louis, MO  63110, United States</t>
   </si>
   <si>
     <t>Nanda A</t>
   </si>
   <si>
-    <t>15834866400</t>
-  </si>
-  <si>
     <t>Warren Alpert Medical School, Brown University, Providence, RI, United States</t>
   </si>
   <si>
     <t>Narayan KMV</t>
   </si>
   <si>
-    <t>56726795700</t>
-  </si>
-  <si>
     <t>Hubert Department of Global Health, Emory Rollins School of Public Health, Emory School of Medicine, Atlanta, GA, United States</t>
   </si>
   <si>
     <t>Neidich JA</t>
   </si>
   <si>
-    <t>6602770204</t>
-  </si>
-  <si>
     <t>Department of Pathology and Immunology, Washington University in St. Louis, St. Louis, MO, United States</t>
   </si>
   <si>
     <t>Nerurkar VR</t>
   </si>
   <si>
-    <t>7003401025</t>
-  </si>
-  <si>
     <t>Newland JG</t>
   </si>
   <si>
-    <t>7005609345</t>
-  </si>
-  <si>
     <t>Department of Pediatrics, Division of Pediatric Infectious Diseases, Washington University in St. Louis, St. Louis, MO, United States</t>
   </si>
   <si>
     <t>Niznik JD</t>
   </si>
   <si>
-    <t>57193723605</t>
-  </si>
-  <si>
     <t>Division of Geriatric Medicine and Center for Aging and Health, University of North Carolina at Chapel Hill, School of Medicine, Chapel Hill, NC, United States, Division of Pharmaceutical Outcomes and Policy, University of North Carolina at Chapel Hill, Eshelman School of Pharmacy, Chapel Hill, NC, United States, Center for Health Equity Research and Promotion, Veterans Affairs (VA) Pittsburgh Healthcare System, Pittsburgh, PA, United States</t>
   </si>
   <si>
     <t>Ogedegbe G</t>
   </si>
   <si>
-    <t>6602960850</t>
-  </si>
-  <si>
     <t>Institute for Excellence in Health Equity, New York University Grossman School of Medicine, New York, United States</t>
   </si>
   <si>
     <t>Oyebanji OA</t>
   </si>
   <si>
-    <t>57223619842</t>
-  </si>
-  <si>
     <t>Page KR</t>
   </si>
   <si>
-    <t>7102902130</t>
-  </si>
-  <si>
     <t>Panettieri RA</t>
   </si>
   <si>
-    <t>57215224223</t>
-  </si>
-  <si>
     <t>Rutgers Institute for Translational Medicine and Science, Rutgers Robert Wood Johnson Medical School, New Brunswick, NJ, United States</t>
   </si>
   <si>
     <t>Parekh YH</t>
   </si>
   <si>
-    <t>57220038353</t>
-  </si>
-  <si>
     <t>Parikh PD</t>
   </si>
   <si>
-    <t>57201635827</t>
-  </si>
-  <si>
     <t>Pasquel FJ</t>
   </si>
   <si>
-    <t>35105616100</t>
-  </si>
-  <si>
     <t>Division of Endocrinology, Metabolism, and Lipids, Emory University School of Medicine, Atlanta, GA, United States</t>
   </si>
   <si>
     <t>Patel SA</t>
   </si>
   <si>
-    <t>44861686400</t>
-  </si>
-  <si>
     <t>Paul R</t>
   </si>
   <si>
-    <t>35956823200</t>
-  </si>
-  <si>
     <t>University of North Carolina at Charlotte, Department of Public Health Sciences, Charlotte, NC, United States</t>
   </si>
   <si>
     <t>Payne M</t>
   </si>
   <si>
-    <t>57223638097</t>
-  </si>
-  <si>
     <t>Pellerano MB</t>
   </si>
   <si>
-    <t>55342047200</t>
-  </si>
-  <si>
     <t>Peng L</t>
   </si>
   <si>
-    <t>57220807007</t>
-  </si>
-  <si>
     <t>Rollins School of PublicHealth, Emory University, Atlanta, GA, United States</t>
   </si>
   <si>
     <t>Phillips KH</t>
   </si>
   <si>
-    <t>57221478098</t>
-  </si>
-  <si>
     <t>Esperanza Center, Baltimore, MD, United States</t>
   </si>
   <si>
     <t>Pina P</t>
   </si>
   <si>
-    <t>57224855499</t>
-  </si>
-  <si>
     <t>Family Health Centers, New York University Langone Health, New York, United States</t>
   </si>
   <si>
     <t>Poor TJ</t>
   </si>
   <si>
-    <t>37031890800</t>
-  </si>
-  <si>
     <t>Porter L</t>
   </si>
   <si>
-    <t>57253157300</t>
-  </si>
-  <si>
     <t>National Association of Health Care Assistants (NAHCA), Carl Junction, MO, United States</t>
   </si>
   <si>
     <t>Powell BJ</t>
   </si>
   <si>
-    <t>57206489093</t>
-  </si>
-  <si>
     <t>Prener CG</t>
   </si>
   <si>
-    <t>55440163000</t>
-  </si>
-  <si>
     <t>Department of Sociology and Anthropology, Saint Louis University, St. Louis, MO, United States</t>
   </si>
   <si>
     <t>Reid R</t>
   </si>
   <si>
-    <t>7401757793</t>
-  </si>
-  <si>
     <t>Reininger B</t>
   </si>
   <si>
-    <t>6603849738</t>
-  </si>
-  <si>
     <t>Department of Health Promotion and Behavior Sciences, School of Public Health, University of Texas Health Science Center at Houston, Brownsville, TX, United States</t>
   </si>
   <si>
     <t>Rivera-Núñez Z</t>
   </si>
   <si>
-    <t>35811377600</t>
-  </si>
-  <si>
     <t>Rowley CF</t>
   </si>
   <si>
-    <t>8654801000</t>
-  </si>
-  <si>
     <t>Division of Infectious Diseases, Beth Israel Deaconess Medical Center, Boston, MA, United States</t>
   </si>
   <si>
     <t>Sarkar IN</t>
   </si>
   <si>
-    <t>15124590700</t>
-  </si>
-  <si>
     <t>Brown University School of Public Health, Providence, RI, United States, Warren Alpert Medical School, Brown University, Providence, RI, United States, Rhode Island Quality Institute, Providence, RI, United States</t>
   </si>
   <si>
     <t>Saxton RE</t>
   </si>
   <si>
-    <t>57194655586</t>
-  </si>
-  <si>
     <t>Schlaggar BL</t>
   </si>
   <si>
-    <t>6603913083</t>
-  </si>
-  <si>
     <t>Schmidt A</t>
   </si>
   <si>
-    <t>57248618200</t>
-  </si>
-  <si>
     <t>Schoenthaler A</t>
   </si>
   <si>
-    <t>13908371800</t>
-  </si>
-  <si>
     <t>Sherby MR</t>
   </si>
   <si>
-    <t>57247109400</t>
-  </si>
-  <si>
     <t>Silverstein RB</t>
   </si>
   <si>
-    <t>57219552278</t>
-  </si>
-  <si>
     <t>Smith C</t>
   </si>
   <si>
-    <t>57223273144</t>
-  </si>
-  <si>
     <t>West Virginia University, Department of Epidemiology, Morgantown, WV, United States</t>
   </si>
   <si>
     <t>Snider E</t>
   </si>
   <si>
-    <t>57247975800</t>
-  </si>
-  <si>
     <t>Sood A</t>
   </si>
   <si>
-    <t>57203164460</t>
-  </si>
-  <si>
     <t>Division of Pulmonary, Critical Care, Sleep and Allergy, School of Medicine, University of New Mexico, Albuquerque, NM, United States, Miners’ Wellness Tele–Extension for Community Health Outcomes, School of Medicine, University of New Mexico, Albuquerque, NM, United States, Office of Faculty Affairs and Career Development, School of Medicine, University of New Mexico, Albuquerque, NM, United States, Miners Colfax Medical Center, Raton, NM, United States</t>
   </si>
   <si>
     <t>St Denis K</t>
   </si>
   <si>
-    <t>57222310846</t>
-  </si>
-  <si>
     <t>Syme M</t>
   </si>
   <si>
-    <t>35103612800</t>
-  </si>
-  <si>
     <t>Thirumurthy H</t>
   </si>
   <si>
-    <t>24559254500</t>
-  </si>
-  <si>
     <t>Division of Health Policy, University of Pennsylvania Perelman, School of Medicine, Philadelphia, United States</t>
   </si>
   <si>
     <t>Tolson TM</t>
   </si>
   <si>
-    <t>57221463718</t>
-  </si>
-  <si>
     <t>Traughber MC</t>
   </si>
   <si>
-    <t>57505973700</t>
-  </si>
-  <si>
     <t>Division of Evaluation and Research, Special School District of St. Louis County, MO</t>
   </si>
   <si>
     <t>Tsai W-Y</t>
   </si>
   <si>
-    <t>24399866200</t>
-  </si>
-  <si>
     <t>Tutrow H</t>
   </si>
   <si>
-    <t>57224861523</t>
-  </si>
-  <si>
     <t>Umpierrez GE</t>
   </si>
   <si>
-    <t>7003596797</t>
-  </si>
-  <si>
     <t>Upson D</t>
   </si>
   <si>
-    <t>7004054150</t>
-  </si>
-  <si>
     <t>Valk T</t>
   </si>
   <si>
-    <t>57498495100</t>
-  </si>
-  <si>
     <t>Admetsys Corporation, Research Division, Winter Park, FL, United States</t>
   </si>
   <si>
     <t>van Stone M</t>
   </si>
   <si>
-    <t>6507192326</t>
-  </si>
-  <si>
     <t>Vashist K</t>
   </si>
   <si>
-    <t>57222625524</t>
-  </si>
-  <si>
     <t>Department of Epidemiology, Rollins School of Public Health, Emory University, Atlanta, Georgia, Georgia</t>
   </si>
   <si>
     <t>Verma S</t>
   </si>
   <si>
-    <t>57218318041</t>
-  </si>
-  <si>
     <t>Vestal L</t>
   </si>
   <si>
-    <t>57248193700</t>
-  </si>
-  <si>
     <t>Vigil DE</t>
   </si>
   <si>
-    <t>57205355603</t>
-  </si>
-  <si>
     <t>Center for American Indian Health, Johns Hopkins Bloomberg School of Public Health, Chinle, AZ, United States</t>
   </si>
   <si>
@@ -1412,73 +911,43 @@
     <t>Wang W-K</t>
   </si>
   <si>
-    <t>10938812100</t>
-  </si>
-  <si>
     <t>Wen S</t>
   </si>
   <si>
-    <t>7201439663</t>
-  </si>
-  <si>
     <t>West Virginia University, Department of Biostatistics, Morgantown, WV, United States</t>
   </si>
   <si>
     <t>White EM</t>
   </si>
   <si>
-    <t>57201284143</t>
-  </si>
-  <si>
     <t>Center for Gerontology and Healthcare Research, Brown University School of Public Health, Providence, RI, United States</t>
   </si>
   <si>
     <t>Wilcher-Roberts M</t>
   </si>
   <si>
-    <t>57248618300</t>
-  </si>
-  <si>
     <t>Wilk D</t>
   </si>
   <si>
-    <t>57433725900</t>
-  </si>
-  <si>
     <t>Williams N</t>
   </si>
   <si>
-    <t>55615499000</t>
-  </si>
-  <si>
     <t>Wilson B</t>
   </si>
   <si>
-    <t>56937637400</t>
-  </si>
-  <si>
     <t>Geriatric Research, Education and Clinical Center, Cleveland Veterans Affairs Medical Center, Cleveland, OH, United States</t>
   </si>
   <si>
     <t>Yang X</t>
   </si>
   <si>
-    <t>57210142538</t>
-  </si>
-  <si>
     <t>Yildirim I</t>
   </si>
   <si>
-    <t>15841191100</t>
-  </si>
-  <si>
     <t>Department of Pediatrics, Section of Infectious Diseases and Global Health, Yale School of Medicine and Yale Institute of Global Health, 1 Church Street, New Haven, CT  06510, United States</t>
   </si>
   <si>
     <t>Zhang K</t>
-  </si>
-  <si>
-    <t>57222044013</t>
   </si>
   <si>
     <t>author_name</t>
@@ -1494,7 +963,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1502,26 +971,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9D9D9"/>
-        <bgColor rgb="FFD9D9D9"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1536,65 +992,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="1">
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1610,19 +1017,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1BACDDD2-4372-4027-AFD7-76F2224A6B65}" name="Table1" displayName="Table1" ref="A1:E210" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1BACDDD2-4372-4027-AFD7-76F2224A6B65}" name="Table1" displayName="Table1" ref="A1:E210" totalsRowShown="0">
   <autoFilter ref="A1:E210" xr:uid="{1BACDDD2-4372-4027-AFD7-76F2224A6B65}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E210">
     <sortCondition ref="B2:B210"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{B8F6899E-BF97-4624-ADC7-83920074EC56}" name="pmid" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{C0457102-F828-4C30-82CD-8BEF389FD604}" name="author_name" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{B8F6899E-BF97-4624-ADC7-83920074EC56}" name="pmid"/>
+    <tableColumn id="2" xr3:uid="{C0457102-F828-4C30-82CD-8BEF389FD604}" name="author_name"/>
     <tableColumn id="3" xr3:uid="{6CEA4693-F925-4FDD-B717-01E0762E6C6C}" name="author_id" dataDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{0063641D-D9FA-4157-BDC7-912E55F7B109}" name="author_aff" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{7DE51D51-7617-45E4-9484-AF4F91788F61}" name="author_type" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{0063641D-D9FA-4157-BDC7-912E55F7B109}" name="author_aff"/>
+    <tableColumn id="5" xr3:uid="{7DE51D51-7617-45E4-9484-AF4F91788F61}" name="author_type"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1947,36 +1354,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F210"/>
+  <dimension ref="A1:E210"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C210" sqref="C1:C210"/>
+      <selection activeCell="C2" sqref="C2:C210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.42578125" customWidth="1"/>
     <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>484</v>
+      <c r="D1" t="s">
+        <v>306</v>
+      </c>
+      <c r="E1" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1986,14 +1393,14 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="1">
+        <v>8285535700</v>
+      </c>
+      <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2001,13 +1408,13 @@
         <v>34294425</v>
       </c>
       <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1">
+        <v>6506993064</v>
+      </c>
+      <c r="D3" t="s">
         <v>8</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
       </c>
       <c r="E3" t="s">
         <v>2</v>
@@ -2018,13 +1425,13 @@
         <v>33228253</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="C4" s="1">
+        <v>57220026426</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
         <v>2</v>
@@ -2035,16 +1442,16 @@
         <v>33812965</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="C5" s="1">
+        <v>57223310024</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -2052,16 +1459,16 @@
         <v>33812965</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
+      </c>
+      <c r="C6" s="1">
+        <v>57216579290</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -2069,13 +1476,13 @@
         <v>33993265</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>21</v>
+        <v>15</v>
+      </c>
+      <c r="C7" s="1">
+        <v>7004687497</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
         <v>2</v>
@@ -2086,13 +1493,13 @@
         <v>33993265</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>24</v>
+        <v>17</v>
+      </c>
+      <c r="C8" s="1">
+        <v>7101867957</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E8" t="s">
         <v>2</v>
@@ -2103,13 +1510,13 @@
         <v>34465306</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>27</v>
+        <v>19</v>
+      </c>
+      <c r="C9" s="1">
+        <v>57247975600</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E9" t="s">
         <v>2</v>
@@ -2120,13 +1527,13 @@
         <v>34465306</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>30</v>
+        <v>21</v>
+      </c>
+      <c r="C10" s="1">
+        <v>36678672500</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E10" t="s">
         <v>2</v>
@@ -2137,13 +1544,13 @@
         <v>33861873</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>33</v>
+        <v>23</v>
+      </c>
+      <c r="C11" s="1">
+        <v>6603429198</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E11" t="s">
         <v>2</v>
@@ -2154,13 +1561,13 @@
         <v>34092431</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>33</v>
+        <v>23</v>
+      </c>
+      <c r="C12" s="1">
+        <v>6603429198</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E12" t="s">
         <v>2</v>
@@ -2171,13 +1578,13 @@
         <v>34264327</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>36</v>
+        <v>25</v>
+      </c>
+      <c r="C13" s="1">
+        <v>36850389900</v>
       </c>
       <c r="D13" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="E13" t="s">
         <v>2</v>
@@ -2188,13 +1595,13 @@
         <v>34081608</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>39</v>
+        <v>27</v>
+      </c>
+      <c r="C14" s="1">
+        <v>56992137400</v>
       </c>
       <c r="D14" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="E14" t="s">
         <v>2</v>
@@ -2205,13 +1612,13 @@
         <v>34294425</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>42</v>
+        <v>29</v>
+      </c>
+      <c r="C15" s="1">
+        <v>26421597500</v>
       </c>
       <c r="D15" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="E15" t="s">
         <v>2</v>
@@ -2222,16 +1629,16 @@
         <v>33577743</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>45</v>
+        <v>31</v>
+      </c>
+      <c r="C16" s="1">
+        <v>57225882475</v>
       </c>
       <c r="D16" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="E16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -2239,13 +1646,13 @@
         <v>34143195</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>48</v>
+        <v>33</v>
+      </c>
+      <c r="C17" s="1">
+        <v>57209365128</v>
       </c>
       <c r="D17" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="E17" t="s">
         <v>2</v>
@@ -2256,13 +1663,13 @@
         <v>33861978</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>50</v>
+        <v>36</v>
+      </c>
+      <c r="C18" s="1">
+        <v>20336747600</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="E18" t="s">
         <v>2</v>
@@ -2273,13 +1680,13 @@
         <v>33764497</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>50</v>
+        <v>36</v>
+      </c>
+      <c r="C19" s="1">
+        <v>20336747600</v>
       </c>
       <c r="D19" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="E19" t="s">
         <v>2</v>
@@ -2290,13 +1697,13 @@
         <v>34449885</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>50</v>
+        <v>36</v>
+      </c>
+      <c r="C20" s="1">
+        <v>20336747600</v>
       </c>
       <c r="D20" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="E20" t="s">
         <v>2</v>
@@ -2307,13 +1714,13 @@
         <v>33993265</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>50</v>
+        <v>36</v>
+      </c>
+      <c r="C21" s="1">
+        <v>20336747600</v>
       </c>
       <c r="D21" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="E21" t="s">
         <v>2</v>
@@ -2324,16 +1731,16 @@
         <v>34375655</v>
       </c>
       <c r="B22" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>57</v>
+        <v>40</v>
+      </c>
+      <c r="C22" s="1">
+        <v>57234670600</v>
       </c>
       <c r="D22" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="E22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -2341,13 +1748,13 @@
         <v>33471114</v>
       </c>
       <c r="B23" t="s">
-        <v>61</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>59</v>
+        <v>43</v>
+      </c>
+      <c r="C23" s="1">
+        <v>57204475312</v>
       </c>
       <c r="D23" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="E23" t="s">
         <v>2</v>
@@ -2358,13 +1765,13 @@
         <v>33775510</v>
       </c>
       <c r="B24" t="s">
-        <v>62</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>63</v>
+        <v>44</v>
+      </c>
+      <c r="C24" s="1">
+        <v>57217220824</v>
       </c>
       <c r="D24" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="E24" t="s">
         <v>2</v>
@@ -2375,16 +1782,16 @@
         <v>34092431</v>
       </c>
       <c r="B25" t="s">
-        <v>67</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>65</v>
+        <v>47</v>
+      </c>
+      <c r="C25" s="1">
+        <v>57217117866</v>
       </c>
       <c r="D25" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="E25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -2392,16 +1799,16 @@
         <v>34010526</v>
       </c>
       <c r="B26" t="s">
-        <v>67</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>65</v>
+        <v>47</v>
+      </c>
+      <c r="C26" s="1">
+        <v>57217117866</v>
       </c>
       <c r="D26" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="E26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -2409,16 +1816,16 @@
         <v>33861873</v>
       </c>
       <c r="B27" t="s">
-        <v>67</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>65</v>
+        <v>47</v>
+      </c>
+      <c r="C27" s="1">
+        <v>57217117866</v>
       </c>
       <c r="D27" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="E27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -2426,13 +1833,13 @@
         <v>34264327</v>
       </c>
       <c r="B28" t="s">
-        <v>68</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>69</v>
+        <v>48</v>
+      </c>
+      <c r="C28" s="1">
+        <v>35452136000</v>
       </c>
       <c r="D28" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="E28" t="s">
         <v>2</v>
@@ -2443,13 +1850,13 @@
         <v>33228253</v>
       </c>
       <c r="B29" t="s">
-        <v>68</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>69</v>
+        <v>48</v>
+      </c>
+      <c r="C29" s="1">
+        <v>35452136000</v>
       </c>
       <c r="D29" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="E29" t="s">
         <v>2</v>
@@ -2460,13 +1867,13 @@
         <v>34465306</v>
       </c>
       <c r="B30" t="s">
-        <v>72</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>73</v>
+        <v>51</v>
+      </c>
+      <c r="C30" s="1">
+        <v>57247975700</v>
       </c>
       <c r="D30" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E30" t="s">
         <v>2</v>
@@ -2477,16 +1884,16 @@
         <v>33323475</v>
       </c>
       <c r="B31" t="s">
-        <v>74</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>75</v>
+        <v>52</v>
+      </c>
+      <c r="C31" s="1">
+        <v>57192937828</v>
       </c>
       <c r="D31" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="E31" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -2494,16 +1901,16 @@
         <v>33471114</v>
       </c>
       <c r="B32" t="s">
-        <v>77</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>78</v>
+        <v>54</v>
+      </c>
+      <c r="C32" s="1">
+        <v>34871585500</v>
       </c>
       <c r="D32" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="E32" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -2511,13 +1918,13 @@
         <v>34465306</v>
       </c>
       <c r="B33" t="s">
-        <v>80</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>81</v>
+        <v>56</v>
+      </c>
+      <c r="C33" s="1">
+        <v>57247761300</v>
       </c>
       <c r="D33" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="E33" t="s">
         <v>2</v>
@@ -2528,13 +1935,13 @@
         <v>34465306</v>
       </c>
       <c r="B34" t="s">
-        <v>83</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>84</v>
+        <v>58</v>
+      </c>
+      <c r="C34" s="1">
+        <v>6508155151</v>
       </c>
       <c r="D34" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="E34" t="s">
         <v>2</v>
@@ -2545,13 +1952,13 @@
         <v>33993265</v>
       </c>
       <c r="B35" t="s">
-        <v>86</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>87</v>
+        <v>60</v>
+      </c>
+      <c r="C35" s="1">
+        <v>8770762400</v>
       </c>
       <c r="D35" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E35" t="s">
         <v>2</v>
@@ -2562,13 +1969,13 @@
         <v>34652783</v>
       </c>
       <c r="B36" t="s">
-        <v>88</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>89</v>
+        <v>61</v>
+      </c>
+      <c r="C36" s="1">
+        <v>7102724879</v>
       </c>
       <c r="D36" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E36" t="s">
         <v>2</v>
@@ -2579,13 +1986,13 @@
         <v>33993265</v>
       </c>
       <c r="B37" t="s">
-        <v>90</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>91</v>
+        <v>62</v>
+      </c>
+      <c r="C37" s="1">
+        <v>6701913563</v>
       </c>
       <c r="D37" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="E37" t="s">
         <v>2</v>
@@ -2596,13 +2003,13 @@
         <v>33993265</v>
       </c>
       <c r="B38" t="s">
-        <v>93</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>94</v>
+        <v>64</v>
+      </c>
+      <c r="C38" s="1">
+        <v>6602882989</v>
       </c>
       <c r="D38" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E38" t="s">
         <v>2</v>
@@ -2613,13 +2020,13 @@
         <v>33870242</v>
       </c>
       <c r="B39" t="s">
-        <v>95</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>96</v>
+        <v>65</v>
+      </c>
+      <c r="C39" s="1">
+        <v>55895259400</v>
       </c>
       <c r="D39" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="E39" t="s">
         <v>2</v>
@@ -2630,13 +2037,13 @@
         <v>33775510</v>
       </c>
       <c r="B40" t="s">
-        <v>98</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>99</v>
+        <v>67</v>
+      </c>
+      <c r="C40" s="1">
+        <v>8242550800</v>
       </c>
       <c r="D40" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="E40" t="s">
         <v>2</v>
@@ -2647,13 +2054,13 @@
         <v>33929934</v>
       </c>
       <c r="B41" t="s">
-        <v>102</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>103</v>
+        <v>70</v>
+      </c>
+      <c r="C41" s="1">
+        <v>57192894008</v>
       </c>
       <c r="D41" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="E41" t="s">
         <v>2</v>
@@ -2664,13 +2071,13 @@
         <v>33775510</v>
       </c>
       <c r="B42" t="s">
-        <v>105</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>106</v>
+        <v>72</v>
+      </c>
+      <c r="C42" s="1">
+        <v>57209403965</v>
       </c>
       <c r="D42" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="E42" t="s">
         <v>2</v>
@@ -2681,13 +2088,13 @@
         <v>34465306</v>
       </c>
       <c r="B43" t="s">
-        <v>107</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>108</v>
+        <v>73</v>
+      </c>
+      <c r="C43" s="1">
+        <v>7003357598</v>
       </c>
       <c r="D43" t="s">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="E43" t="s">
         <v>2</v>
@@ -2698,13 +2105,13 @@
         <v>34264327</v>
       </c>
       <c r="B44" t="s">
-        <v>110</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>111</v>
+        <v>75</v>
+      </c>
+      <c r="C44" s="1">
+        <v>7006733030</v>
       </c>
       <c r="D44" t="s">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="E44" t="s">
         <v>2</v>
@@ -2715,16 +2122,16 @@
         <v>33323475</v>
       </c>
       <c r="B45" t="s">
-        <v>113</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>114</v>
+        <v>77</v>
+      </c>
+      <c r="C45" s="1">
+        <v>57216772894</v>
       </c>
       <c r="D45" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="E45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -2732,13 +2139,13 @@
         <v>34081608</v>
       </c>
       <c r="B46" t="s">
-        <v>115</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>116</v>
+        <v>78</v>
+      </c>
+      <c r="C46" s="1">
+        <v>57258346000</v>
       </c>
       <c r="D46" t="s">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="E46" t="s">
         <v>2</v>
@@ -2749,13 +2156,13 @@
         <v>34264327</v>
       </c>
       <c r="B47" t="s">
-        <v>118</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>119</v>
+        <v>80</v>
+      </c>
+      <c r="C47" s="1">
+        <v>57226121039</v>
       </c>
       <c r="D47" t="s">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="E47" t="s">
         <v>2</v>
@@ -2766,13 +2173,13 @@
         <v>34465306</v>
       </c>
       <c r="B48" t="s">
-        <v>121</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>122</v>
+        <v>82</v>
+      </c>
+      <c r="C48" s="1">
+        <v>55978805000</v>
       </c>
       <c r="D48" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="E48" t="s">
         <v>2</v>
@@ -2783,13 +2190,13 @@
         <v>34465306</v>
       </c>
       <c r="B49" t="s">
-        <v>123</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>124</v>
+        <v>83</v>
+      </c>
+      <c r="C49" s="1">
+        <v>57194406801</v>
       </c>
       <c r="D49" t="s">
-        <v>125</v>
+        <v>84</v>
       </c>
       <c r="E49" t="s">
         <v>2</v>
@@ -2800,16 +2207,16 @@
         <v>33471114</v>
       </c>
       <c r="B50" t="s">
-        <v>126</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>127</v>
+        <v>85</v>
+      </c>
+      <c r="C50" s="1">
+        <v>6506644120</v>
       </c>
       <c r="D50" t="s">
+        <v>4</v>
+      </c>
+      <c r="E50" t="s">
         <v>5</v>
-      </c>
-      <c r="E50" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -2817,13 +2224,13 @@
         <v>33764497</v>
       </c>
       <c r="B51" t="s">
-        <v>128</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>129</v>
+        <v>86</v>
+      </c>
+      <c r="C51" s="1">
+        <v>57191069525</v>
       </c>
       <c r="D51" t="s">
-        <v>130</v>
+        <v>87</v>
       </c>
       <c r="E51" t="s">
         <v>2</v>
@@ -2834,16 +2241,16 @@
         <v>34092431</v>
       </c>
       <c r="B52" t="s">
-        <v>131</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>132</v>
+        <v>88</v>
+      </c>
+      <c r="C52" s="1">
+        <v>6603005716</v>
       </c>
       <c r="D52" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="E52" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -2851,16 +2258,16 @@
         <v>34010526</v>
       </c>
       <c r="B53" t="s">
-        <v>131</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>132</v>
+        <v>88</v>
+      </c>
+      <c r="C53" s="1">
+        <v>6603005716</v>
       </c>
       <c r="D53" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="E53" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -2868,16 +2275,16 @@
         <v>34375655</v>
       </c>
       <c r="B54" t="s">
-        <v>131</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>132</v>
+        <v>88</v>
+      </c>
+      <c r="C54" s="1">
+        <v>6603005716</v>
       </c>
       <c r="D54" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="E54" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -2885,16 +2292,16 @@
         <v>33861873</v>
       </c>
       <c r="B55" t="s">
-        <v>131</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>132</v>
+        <v>88</v>
+      </c>
+      <c r="C55" s="1">
+        <v>6603005716</v>
       </c>
       <c r="D55" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="E55" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -2902,13 +2309,13 @@
         <v>34081608</v>
       </c>
       <c r="B56" t="s">
-        <v>133</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>134</v>
+        <v>89</v>
+      </c>
+      <c r="C56" s="1">
+        <v>34769828800</v>
       </c>
       <c r="D56" t="s">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="E56" t="s">
         <v>2</v>
@@ -2919,13 +2326,13 @@
         <v>34264327</v>
       </c>
       <c r="B57" t="s">
-        <v>136</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>137</v>
+        <v>91</v>
+      </c>
+      <c r="C57" s="1">
+        <v>35737232200</v>
       </c>
       <c r="D57" t="s">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="E57" t="s">
         <v>2</v>
@@ -2936,13 +2343,13 @@
         <v>34081608</v>
       </c>
       <c r="B58" t="s">
-        <v>138</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>139</v>
+        <v>92</v>
+      </c>
+      <c r="C58" s="1">
+        <v>57205524437</v>
       </c>
       <c r="D58" t="s">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="E58" t="s">
         <v>2</v>
@@ -2953,13 +2360,13 @@
         <v>33471114</v>
       </c>
       <c r="B59" t="s">
-        <v>140</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>141</v>
+        <v>93</v>
+      </c>
+      <c r="C59" s="1">
+        <v>7202655127</v>
       </c>
       <c r="D59" t="s">
-        <v>142</v>
+        <v>94</v>
       </c>
       <c r="E59" t="s">
         <v>2</v>
@@ -2970,13 +2377,13 @@
         <v>33775510</v>
       </c>
       <c r="B60" t="s">
-        <v>143</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>144</v>
+        <v>95</v>
+      </c>
+      <c r="C60" s="1">
+        <v>55894087200</v>
       </c>
       <c r="D60" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="E60" t="s">
         <v>2</v>
@@ -2987,13 +2394,13 @@
         <v>34465306</v>
       </c>
       <c r="B61" t="s">
-        <v>145</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>146</v>
+        <v>96</v>
+      </c>
+      <c r="C61" s="1">
+        <v>24504213100</v>
       </c>
       <c r="D61" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E61" t="s">
         <v>2</v>
@@ -3004,13 +2411,13 @@
         <v>34274126</v>
       </c>
       <c r="B62" t="s">
-        <v>147</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>148</v>
+        <v>97</v>
+      </c>
+      <c r="C62" s="1">
+        <v>57218675513</v>
       </c>
       <c r="D62" t="s">
-        <v>149</v>
+        <v>98</v>
       </c>
       <c r="E62" t="s">
         <v>2</v>
@@ -3021,16 +2428,16 @@
         <v>33323475</v>
       </c>
       <c r="B63" t="s">
-        <v>150</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>151</v>
+        <v>99</v>
+      </c>
+      <c r="C63" s="1">
+        <v>57216773875</v>
       </c>
       <c r="D63" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="E63" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -3038,16 +2445,16 @@
         <v>33861978</v>
       </c>
       <c r="B64" t="s">
-        <v>155</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>152</v>
+        <v>102</v>
+      </c>
+      <c r="C64" s="1">
+        <v>7102617491</v>
       </c>
       <c r="D64" t="s">
-        <v>153</v>
+        <v>100</v>
       </c>
       <c r="E64" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -3055,16 +2462,16 @@
         <v>33764497</v>
       </c>
       <c r="B65" t="s">
-        <v>155</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>152</v>
+        <v>102</v>
+      </c>
+      <c r="C65" s="1">
+        <v>7102617491</v>
       </c>
       <c r="D65" t="s">
-        <v>154</v>
+        <v>101</v>
       </c>
       <c r="E65" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -3072,13 +2479,13 @@
         <v>33775510</v>
       </c>
       <c r="B66" t="s">
-        <v>156</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>157</v>
+        <v>103</v>
+      </c>
+      <c r="C66" s="1">
+        <v>7102653518</v>
       </c>
       <c r="D66" t="s">
-        <v>158</v>
+        <v>104</v>
       </c>
       <c r="E66" t="s">
         <v>2</v>
@@ -3089,13 +2496,13 @@
         <v>34465306</v>
       </c>
       <c r="B67" t="s">
-        <v>159</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>160</v>
+        <v>105</v>
+      </c>
+      <c r="C67" s="1">
+        <v>55666330900</v>
       </c>
       <c r="D67" t="s">
-        <v>161</v>
+        <v>106</v>
       </c>
       <c r="E67" t="s">
         <v>2</v>
@@ -3106,13 +2513,13 @@
         <v>33228253</v>
       </c>
       <c r="B68" t="s">
-        <v>163</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>164</v>
+        <v>108</v>
+      </c>
+      <c r="C68" s="1">
+        <v>57220023616</v>
       </c>
       <c r="D68" t="s">
-        <v>165</v>
+        <v>109</v>
       </c>
       <c r="E68" t="s">
         <v>2</v>
@@ -3123,13 +2530,13 @@
         <v>34092431</v>
       </c>
       <c r="B69" t="s">
-        <v>170</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>166</v>
+        <v>113</v>
+      </c>
+      <c r="C69" s="1">
+        <v>7003966799</v>
       </c>
       <c r="D69" t="s">
-        <v>167</v>
+        <v>110</v>
       </c>
       <c r="E69" t="s">
         <v>2</v>
@@ -3140,13 +2547,13 @@
         <v>34010526</v>
       </c>
       <c r="B70" t="s">
-        <v>170</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>166</v>
+        <v>113</v>
+      </c>
+      <c r="C70" s="1">
+        <v>7003966799</v>
       </c>
       <c r="D70" t="s">
-        <v>168</v>
+        <v>111</v>
       </c>
       <c r="E70" t="s">
         <v>2</v>
@@ -3157,13 +2564,13 @@
         <v>33993265</v>
       </c>
       <c r="B71" t="s">
-        <v>170</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>166</v>
+        <v>113</v>
+      </c>
+      <c r="C71" s="1">
+        <v>7003966799</v>
       </c>
       <c r="D71" t="s">
-        <v>169</v>
+        <v>112</v>
       </c>
       <c r="E71" t="s">
         <v>2</v>
@@ -3174,13 +2581,13 @@
         <v>33861873</v>
       </c>
       <c r="B72" t="s">
-        <v>170</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>166</v>
+        <v>113</v>
+      </c>
+      <c r="C72" s="1">
+        <v>7003966799</v>
       </c>
       <c r="D72" t="s">
-        <v>171</v>
+        <v>114</v>
       </c>
       <c r="E72" t="s">
         <v>2</v>
@@ -3191,13 +2598,13 @@
         <v>33471114</v>
       </c>
       <c r="B73" t="s">
-        <v>172</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>173</v>
+        <v>115</v>
+      </c>
+      <c r="C73" s="1">
+        <v>57203503067</v>
       </c>
       <c r="D73" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="E73" t="s">
         <v>2</v>
@@ -3208,16 +2615,16 @@
         <v>34081608</v>
       </c>
       <c r="B74" t="s">
-        <v>174</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>175</v>
+        <v>116</v>
+      </c>
+      <c r="C74" s="1">
+        <v>57226609034</v>
       </c>
       <c r="D74" t="s">
-        <v>176</v>
+        <v>117</v>
       </c>
       <c r="E74" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -3225,13 +2632,13 @@
         <v>34465306</v>
       </c>
       <c r="B75" t="s">
-        <v>177</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>178</v>
+        <v>118</v>
+      </c>
+      <c r="C75" s="1">
+        <v>6701464580</v>
       </c>
       <c r="D75" t="s">
-        <v>179</v>
+        <v>119</v>
       </c>
       <c r="E75" t="s">
         <v>2</v>
@@ -3242,13 +2649,13 @@
         <v>34092431</v>
       </c>
       <c r="B76" t="s">
-        <v>180</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>181</v>
+        <v>120</v>
+      </c>
+      <c r="C76" s="1">
+        <v>35891847400</v>
       </c>
       <c r="D76" t="s">
-        <v>182</v>
+        <v>121</v>
       </c>
       <c r="E76" t="s">
         <v>2</v>
@@ -3259,13 +2666,13 @@
         <v>33861873</v>
       </c>
       <c r="B77" t="s">
-        <v>180</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>181</v>
+        <v>120</v>
+      </c>
+      <c r="C77" s="1">
+        <v>35891847400</v>
       </c>
       <c r="D77" t="s">
-        <v>183</v>
+        <v>122</v>
       </c>
       <c r="E77" t="s">
         <v>2</v>
@@ -3276,13 +2683,13 @@
         <v>33775510</v>
       </c>
       <c r="B78" t="s">
-        <v>184</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>185</v>
+        <v>123</v>
+      </c>
+      <c r="C78" s="1">
+        <v>56661885800</v>
       </c>
       <c r="D78" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="E78" t="s">
         <v>2</v>
@@ -3293,13 +2700,13 @@
         <v>34464194</v>
       </c>
       <c r="B79" t="s">
-        <v>186</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>187</v>
+        <v>124</v>
+      </c>
+      <c r="C79" s="1">
+        <v>35290709200</v>
       </c>
       <c r="D79" t="s">
-        <v>188</v>
+        <v>125</v>
       </c>
       <c r="E79" t="s">
         <v>2</v>
@@ -3310,13 +2717,13 @@
         <v>34449885</v>
       </c>
       <c r="B80" t="s">
-        <v>189</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>190</v>
+        <v>126</v>
+      </c>
+      <c r="C80" s="1">
+        <v>7201657480</v>
       </c>
       <c r="D80" t="s">
-        <v>191</v>
+        <v>127</v>
       </c>
       <c r="E80" t="s">
         <v>2</v>
@@ -3327,13 +2734,13 @@
         <v>33861978</v>
       </c>
       <c r="B81" t="s">
-        <v>192</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>193</v>
+        <v>128</v>
+      </c>
+      <c r="C81" s="1">
+        <v>57217341894</v>
       </c>
       <c r="D81" t="s">
-        <v>194</v>
+        <v>129</v>
       </c>
       <c r="E81" t="s">
         <v>2</v>
@@ -3344,13 +2751,13 @@
         <v>34449885</v>
       </c>
       <c r="B82" t="s">
-        <v>192</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>193</v>
+        <v>128</v>
+      </c>
+      <c r="C82" s="1">
+        <v>57217341894</v>
       </c>
       <c r="D82" t="s">
-        <v>195</v>
+        <v>130</v>
       </c>
       <c r="E82" t="s">
         <v>2</v>
@@ -3361,13 +2768,13 @@
         <v>33870242</v>
       </c>
       <c r="B83" t="s">
-        <v>196</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>197</v>
+        <v>131</v>
+      </c>
+      <c r="C83" s="1">
+        <v>8842663900</v>
       </c>
       <c r="D83" t="s">
-        <v>198</v>
+        <v>132</v>
       </c>
       <c r="E83" t="s">
         <v>2</v>
@@ -3378,13 +2785,13 @@
         <v>34465306</v>
       </c>
       <c r="B84" t="s">
-        <v>199</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>200</v>
+        <v>133</v>
+      </c>
+      <c r="C84" s="1">
+        <v>16180279600</v>
       </c>
       <c r="D84" t="s">
-        <v>201</v>
+        <v>134</v>
       </c>
       <c r="E84" t="s">
         <v>2</v>
@@ -3395,13 +2802,13 @@
         <v>33812965</v>
       </c>
       <c r="B85" t="s">
-        <v>202</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>203</v>
+        <v>135</v>
+      </c>
+      <c r="C85" s="1">
+        <v>57189017887</v>
       </c>
       <c r="D85" t="s">
-        <v>204</v>
+        <v>136</v>
       </c>
       <c r="E85" t="s">
         <v>2</v>
@@ -3412,13 +2819,13 @@
         <v>33764497</v>
       </c>
       <c r="B86" t="s">
-        <v>205</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>206</v>
+        <v>137</v>
+      </c>
+      <c r="C86" s="1">
+        <v>42661584300</v>
       </c>
       <c r="D86" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="E86" t="s">
         <v>2</v>
@@ -3429,13 +2836,13 @@
         <v>34264327</v>
       </c>
       <c r="B87" t="s">
-        <v>207</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>208</v>
+        <v>138</v>
+      </c>
+      <c r="C87" s="1">
+        <v>57226101415</v>
       </c>
       <c r="D87" t="s">
-        <v>209</v>
+        <v>139</v>
       </c>
       <c r="E87" t="s">
         <v>2</v>
@@ -3446,13 +2853,13 @@
         <v>33812965</v>
       </c>
       <c r="B88" t="s">
-        <v>212</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>210</v>
+        <v>141</v>
+      </c>
+      <c r="C88" s="1">
+        <v>35558534100</v>
       </c>
       <c r="D88" t="s">
-        <v>211</v>
+        <v>140</v>
       </c>
       <c r="E88" t="s">
         <v>2</v>
@@ -3463,16 +2870,16 @@
         <v>34047758</v>
       </c>
       <c r="B89" t="s">
-        <v>213</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>214</v>
+        <v>142</v>
+      </c>
+      <c r="C89" s="1">
+        <v>7004958298</v>
       </c>
       <c r="D89" t="s">
-        <v>215</v>
+        <v>143</v>
       </c>
       <c r="E89" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -3480,13 +2887,13 @@
         <v>33929934</v>
       </c>
       <c r="B90" t="s">
-        <v>216</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>217</v>
+        <v>144</v>
+      </c>
+      <c r="C90" s="1">
+        <v>15044573600</v>
       </c>
       <c r="D90" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="E90" t="s">
         <v>2</v>
@@ -3497,13 +2904,13 @@
         <v>34264327</v>
       </c>
       <c r="B91" t="s">
-        <v>218</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>219</v>
+        <v>145</v>
+      </c>
+      <c r="C91" s="1">
+        <v>7201375470</v>
       </c>
       <c r="D91" t="s">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="E91" t="s">
         <v>2</v>
@@ -3514,13 +2921,13 @@
         <v>34465306</v>
       </c>
       <c r="B92" t="s">
-        <v>221</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>222</v>
+        <v>147</v>
+      </c>
+      <c r="C92" s="1">
+        <v>57218991877</v>
       </c>
       <c r="D92" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E92" t="s">
         <v>2</v>
@@ -3531,13 +2938,13 @@
         <v>34159841</v>
       </c>
       <c r="B93" t="s">
-        <v>223</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>224</v>
+        <v>148</v>
+      </c>
+      <c r="C93" s="1">
+        <v>56911970000</v>
       </c>
       <c r="D93" t="s">
-        <v>225</v>
+        <v>149</v>
       </c>
       <c r="E93" t="s">
         <v>2</v>
@@ -3548,13 +2955,13 @@
         <v>34264327</v>
       </c>
       <c r="B94" t="s">
-        <v>226</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>227</v>
+        <v>150</v>
+      </c>
+      <c r="C94" s="1">
+        <v>57198326551</v>
       </c>
       <c r="D94" t="s">
-        <v>228</v>
+        <v>151</v>
       </c>
       <c r="E94" t="s">
         <v>2</v>
@@ -3565,13 +2972,13 @@
         <v>33764497</v>
       </c>
       <c r="B95" t="s">
-        <v>229</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>230</v>
+        <v>152</v>
+      </c>
+      <c r="C95" s="1">
+        <v>36552577100</v>
       </c>
       <c r="D95" t="s">
-        <v>231</v>
+        <v>153</v>
       </c>
       <c r="E95" t="s">
         <v>2</v>
@@ -3582,13 +2989,13 @@
         <v>33870242</v>
       </c>
       <c r="B96" t="s">
-        <v>232</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>233</v>
+        <v>154</v>
+      </c>
+      <c r="C96" s="1">
+        <v>57202968470</v>
       </c>
       <c r="D96" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="E96" t="s">
         <v>2</v>
@@ -3599,16 +3006,16 @@
         <v>33577743</v>
       </c>
       <c r="B97" t="s">
-        <v>234</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>235</v>
+        <v>155</v>
+      </c>
+      <c r="C97" s="1">
+        <v>54784459100</v>
       </c>
       <c r="D97" t="s">
-        <v>236</v>
+        <v>156</v>
       </c>
       <c r="E97" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -3616,13 +3023,13 @@
         <v>34465306</v>
       </c>
       <c r="B98" t="s">
-        <v>237</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>238</v>
+        <v>157</v>
+      </c>
+      <c r="C98" s="1">
+        <v>36664663700</v>
       </c>
       <c r="D98" t="s">
-        <v>239</v>
+        <v>158</v>
       </c>
       <c r="E98" t="s">
         <v>2</v>
@@ -3633,13 +3040,13 @@
         <v>34449885</v>
       </c>
       <c r="B99" t="s">
-        <v>240</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>241</v>
+        <v>159</v>
+      </c>
+      <c r="C99" s="1">
+        <v>57216370590</v>
       </c>
       <c r="D99" t="s">
-        <v>191</v>
+        <v>127</v>
       </c>
       <c r="E99" t="s">
         <v>2</v>
@@ -3650,13 +3057,13 @@
         <v>33993265</v>
       </c>
       <c r="B100" t="s">
-        <v>242</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>243</v>
+        <v>160</v>
+      </c>
+      <c r="C100" s="1">
+        <v>57223592557</v>
       </c>
       <c r="D100" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E100" t="s">
         <v>2</v>
@@ -3667,13 +3074,13 @@
         <v>34274126</v>
       </c>
       <c r="B101" t="s">
-        <v>244</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>245</v>
+        <v>161</v>
+      </c>
+      <c r="C101" s="1">
+        <v>6603542392</v>
       </c>
       <c r="D101" t="s">
-        <v>246</v>
+        <v>162</v>
       </c>
       <c r="E101" t="s">
         <v>2</v>
@@ -3684,13 +3091,13 @@
         <v>33812965</v>
       </c>
       <c r="B102" t="s">
-        <v>247</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>248</v>
+        <v>163</v>
+      </c>
+      <c r="C102" s="1">
+        <v>57221505466</v>
       </c>
       <c r="D102" t="s">
-        <v>249</v>
+        <v>164</v>
       </c>
       <c r="E102" t="s">
         <v>2</v>
@@ -3701,13 +3108,13 @@
         <v>33993265</v>
       </c>
       <c r="B103" t="s">
-        <v>250</v>
-      </c>
-      <c r="C103" s="4" t="s">
-        <v>251</v>
+        <v>165</v>
+      </c>
+      <c r="C103" s="1">
+        <v>57273541500</v>
       </c>
       <c r="D103" t="s">
-        <v>252</v>
+        <v>166</v>
       </c>
       <c r="E103" t="s">
         <v>2</v>
@@ -3718,13 +3125,13 @@
         <v>33323475</v>
       </c>
       <c r="B104" t="s">
-        <v>253</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>254</v>
+        <v>167</v>
+      </c>
+      <c r="C104" s="1">
+        <v>7005932893</v>
       </c>
       <c r="D104" t="s">
-        <v>255</v>
+        <v>168</v>
       </c>
       <c r="E104" t="s">
         <v>2</v>
@@ -3735,16 +3142,16 @@
         <v>34159841</v>
       </c>
       <c r="B105" t="s">
-        <v>253</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>254</v>
+        <v>167</v>
+      </c>
+      <c r="C105" s="1">
+        <v>7005932893</v>
       </c>
       <c r="D105" t="s">
-        <v>256</v>
+        <v>169</v>
       </c>
       <c r="E105" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -3752,13 +3159,13 @@
         <v>33861873</v>
       </c>
       <c r="B106" t="s">
-        <v>257</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>258</v>
+        <v>170</v>
+      </c>
+      <c r="C106" s="1">
+        <v>56030099400</v>
       </c>
       <c r="D106" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E106" t="s">
         <v>2</v>
@@ -3769,13 +3176,13 @@
         <v>34465306</v>
       </c>
       <c r="B107" t="s">
-        <v>259</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>260</v>
+        <v>171</v>
+      </c>
+      <c r="C107" s="1">
+        <v>30767629500</v>
       </c>
       <c r="D107" t="s">
-        <v>261</v>
+        <v>172</v>
       </c>
       <c r="E107" t="s">
         <v>2</v>
@@ -3786,13 +3193,13 @@
         <v>33993265</v>
       </c>
       <c r="B108" t="s">
-        <v>262</v>
-      </c>
-      <c r="C108" s="4" t="s">
-        <v>263</v>
+        <v>173</v>
+      </c>
+      <c r="C108" s="1">
+        <v>57201197202</v>
       </c>
       <c r="D108" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E108" t="s">
         <v>2</v>
@@ -3803,13 +3210,13 @@
         <v>33228253</v>
       </c>
       <c r="B109" t="s">
-        <v>264</v>
-      </c>
-      <c r="C109" s="4" t="s">
-        <v>265</v>
+        <v>174</v>
+      </c>
+      <c r="C109" s="1">
+        <v>57220028740</v>
       </c>
       <c r="D109" t="s">
-        <v>165</v>
+        <v>109</v>
       </c>
       <c r="E109" t="s">
         <v>2</v>
@@ -3820,13 +3227,13 @@
         <v>34081608</v>
       </c>
       <c r="B110" t="s">
-        <v>266</v>
-      </c>
-      <c r="C110" s="4" t="s">
-        <v>267</v>
+        <v>175</v>
+      </c>
+      <c r="C110" s="1">
+        <v>55661493300</v>
       </c>
       <c r="D110" t="s">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="E110" t="s">
         <v>2</v>
@@ -3837,13 +3244,13 @@
         <v>34264327</v>
       </c>
       <c r="B111" t="s">
-        <v>268</v>
-      </c>
-      <c r="C111" s="4" t="s">
-        <v>269</v>
+        <v>176</v>
+      </c>
+      <c r="C111" s="1">
+        <v>57201190256</v>
       </c>
       <c r="D111" t="s">
-        <v>270</v>
+        <v>177</v>
       </c>
       <c r="E111" t="s">
         <v>2</v>
@@ -3854,13 +3261,13 @@
         <v>34465306</v>
       </c>
       <c r="B112" t="s">
-        <v>271</v>
-      </c>
-      <c r="C112" s="4" t="s">
-        <v>272</v>
+        <v>178</v>
+      </c>
+      <c r="C112" s="1">
+        <v>57207916193</v>
       </c>
       <c r="D112" t="s">
-        <v>273</v>
+        <v>179</v>
       </c>
       <c r="E112" t="s">
         <v>2</v>
@@ -3871,13 +3278,13 @@
         <v>33775510</v>
       </c>
       <c r="B113" t="s">
-        <v>274</v>
-      </c>
-      <c r="C113" s="4" t="s">
-        <v>275</v>
+        <v>180</v>
+      </c>
+      <c r="C113" s="1">
+        <v>57188962470</v>
       </c>
       <c r="D113" t="s">
-        <v>276</v>
+        <v>181</v>
       </c>
       <c r="E113" t="s">
         <v>2</v>
@@ -3888,32 +3295,32 @@
         <v>34264327</v>
       </c>
       <c r="B114" t="s">
-        <v>277</v>
-      </c>
-      <c r="C114" s="4" t="s">
-        <v>278</v>
+        <v>182</v>
+      </c>
+      <c r="C114" s="1">
+        <v>57226103648</v>
       </c>
       <c r="D114" t="s">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="E114" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" s="1">
+      <c r="A115">
         <v>34465306</v>
       </c>
-      <c r="B115" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="C115" s="4">
+      <c r="B115" t="s">
+        <v>183</v>
+      </c>
+      <c r="C115" s="1">
         <v>36731316800</v>
       </c>
-      <c r="D115" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="E115" s="1" t="s">
+      <c r="D115" t="s">
+        <v>184</v>
+      </c>
+      <c r="E115" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3922,13 +3329,13 @@
         <v>34264327</v>
       </c>
       <c r="B116" t="s">
-        <v>281</v>
-      </c>
-      <c r="C116" s="4" t="s">
-        <v>282</v>
+        <v>185</v>
+      </c>
+      <c r="C116" s="1">
+        <v>57199725284</v>
       </c>
       <c r="D116" t="s">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="E116" t="s">
         <v>2</v>
@@ -3939,16 +3346,16 @@
         <v>33775510</v>
       </c>
       <c r="B117" t="s">
-        <v>283</v>
-      </c>
-      <c r="C117" s="4" t="s">
-        <v>284</v>
+        <v>186</v>
+      </c>
+      <c r="C117" s="1">
+        <v>57222579702</v>
       </c>
       <c r="D117" t="s">
-        <v>285</v>
+        <v>187</v>
       </c>
       <c r="E117" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -3956,13 +3363,13 @@
         <v>34092431</v>
       </c>
       <c r="B118" t="s">
-        <v>288</v>
-      </c>
-      <c r="C118" s="4" t="s">
-        <v>286</v>
+        <v>189</v>
+      </c>
+      <c r="C118" s="1">
+        <v>36108886100</v>
       </c>
       <c r="D118" t="s">
-        <v>287</v>
+        <v>188</v>
       </c>
       <c r="E118" t="s">
         <v>2</v>
@@ -3973,13 +3380,13 @@
         <v>33861873</v>
       </c>
       <c r="B119" t="s">
-        <v>288</v>
-      </c>
-      <c r="C119" s="4" t="s">
-        <v>286</v>
+        <v>189</v>
+      </c>
+      <c r="C119" s="1">
+        <v>36108886100</v>
       </c>
       <c r="D119" t="s">
-        <v>289</v>
+        <v>190</v>
       </c>
       <c r="E119" t="s">
         <v>2</v>
@@ -3990,13 +3397,13 @@
         <v>34081608</v>
       </c>
       <c r="B120" t="s">
-        <v>290</v>
-      </c>
-      <c r="C120" s="4" t="s">
-        <v>291</v>
+        <v>191</v>
+      </c>
+      <c r="C120" s="1">
+        <v>7202729955</v>
       </c>
       <c r="D120" t="s">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="E120" t="s">
         <v>2</v>
@@ -4007,13 +3414,13 @@
         <v>33228253</v>
       </c>
       <c r="B121" t="s">
-        <v>292</v>
-      </c>
-      <c r="C121" s="4" t="s">
-        <v>293</v>
+        <v>192</v>
+      </c>
+      <c r="C121" s="1">
+        <v>57220036794</v>
       </c>
       <c r="D121" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
         <v>2</v>
@@ -4024,16 +3431,16 @@
         <v>33323475</v>
       </c>
       <c r="B122" t="s">
-        <v>294</v>
-      </c>
-      <c r="C122" s="4" t="s">
-        <v>295</v>
+        <v>193</v>
+      </c>
+      <c r="C122" s="1">
+        <v>57102893100</v>
       </c>
       <c r="D122" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="E122" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -4041,13 +3448,13 @@
         <v>34465306</v>
       </c>
       <c r="B123" t="s">
-        <v>296</v>
-      </c>
-      <c r="C123" s="4" t="s">
-        <v>297</v>
+        <v>194</v>
+      </c>
+      <c r="C123" s="1">
+        <v>56075055300</v>
       </c>
       <c r="D123" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="E123" t="s">
         <v>2</v>
@@ -4058,16 +3465,16 @@
         <v>33929934</v>
       </c>
       <c r="B124" t="s">
-        <v>298</v>
-      </c>
-      <c r="C124" s="4" t="s">
-        <v>299</v>
+        <v>195</v>
+      </c>
+      <c r="C124" s="1">
+        <v>57165902200</v>
       </c>
       <c r="D124" t="s">
-        <v>300</v>
+        <v>196</v>
       </c>
       <c r="E124" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
@@ -4075,16 +3482,16 @@
         <v>34159841</v>
       </c>
       <c r="B125" t="s">
-        <v>302</v>
-      </c>
-      <c r="C125" s="4" t="s">
-        <v>301</v>
+        <v>197</v>
+      </c>
+      <c r="C125" s="1">
+        <v>55586521200</v>
       </c>
       <c r="D125" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="E125" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
@@ -4092,16 +3499,16 @@
         <v>33323475</v>
       </c>
       <c r="B126" t="s">
-        <v>302</v>
-      </c>
-      <c r="C126" s="4" t="s">
-        <v>301</v>
+        <v>197</v>
+      </c>
+      <c r="C126" s="1">
+        <v>55586521200</v>
       </c>
       <c r="D126" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="E126" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
@@ -4109,13 +3516,13 @@
         <v>33764497</v>
       </c>
       <c r="B127" t="s">
-        <v>303</v>
-      </c>
-      <c r="C127" s="4" t="s">
-        <v>304</v>
+        <v>198</v>
+      </c>
+      <c r="C127" s="1">
+        <v>54780229200</v>
       </c>
       <c r="D127" t="s">
-        <v>305</v>
+        <v>199</v>
       </c>
       <c r="E127" t="s">
         <v>2</v>
@@ -4126,16 +3533,16 @@
         <v>33775510</v>
       </c>
       <c r="B128" t="s">
-        <v>306</v>
-      </c>
-      <c r="C128" s="4" t="s">
-        <v>307</v>
+        <v>200</v>
+      </c>
+      <c r="C128" s="1">
+        <v>57222575888</v>
       </c>
       <c r="D128" t="s">
-        <v>285</v>
+        <v>187</v>
       </c>
       <c r="E128" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
@@ -4143,13 +3550,13 @@
         <v>33861978</v>
       </c>
       <c r="B129" t="s">
-        <v>308</v>
-      </c>
-      <c r="C129" s="4" t="s">
-        <v>309</v>
+        <v>201</v>
+      </c>
+      <c r="C129" s="1">
+        <v>7102090811</v>
       </c>
       <c r="D129" t="s">
-        <v>194</v>
+        <v>129</v>
       </c>
       <c r="E129" t="s">
         <v>2</v>
@@ -4160,13 +3567,13 @@
         <v>34092431</v>
       </c>
       <c r="B130" t="s">
-        <v>308</v>
-      </c>
-      <c r="C130" s="4" t="s">
-        <v>309</v>
+        <v>201</v>
+      </c>
+      <c r="C130" s="1">
+        <v>7102090811</v>
       </c>
       <c r="D130" t="s">
-        <v>287</v>
+        <v>188</v>
       </c>
       <c r="E130" t="s">
         <v>2</v>
@@ -4177,13 +3584,13 @@
         <v>34010526</v>
       </c>
       <c r="B131" t="s">
-        <v>308</v>
-      </c>
-      <c r="C131" s="4" t="s">
-        <v>309</v>
+        <v>201</v>
+      </c>
+      <c r="C131" s="1">
+        <v>7102090811</v>
       </c>
       <c r="D131" t="s">
-        <v>182</v>
+        <v>121</v>
       </c>
       <c r="E131" t="s">
         <v>2</v>
@@ -4194,13 +3601,13 @@
         <v>33861873</v>
       </c>
       <c r="B132" t="s">
-        <v>308</v>
-      </c>
-      <c r="C132" s="4" t="s">
-        <v>309</v>
+        <v>201</v>
+      </c>
+      <c r="C132" s="1">
+        <v>7102090811</v>
       </c>
       <c r="D132" t="s">
-        <v>289</v>
+        <v>190</v>
       </c>
       <c r="E132" t="s">
         <v>2</v>
@@ -4211,13 +3618,13 @@
         <v>34465306</v>
       </c>
       <c r="B133" t="s">
-        <v>310</v>
-      </c>
-      <c r="C133" s="4" t="s">
-        <v>311</v>
+        <v>202</v>
+      </c>
+      <c r="C133" s="1">
+        <v>57191870727</v>
       </c>
       <c r="D133" t="s">
-        <v>179</v>
+        <v>119</v>
       </c>
       <c r="E133" t="s">
         <v>2</v>
@@ -4228,13 +3635,13 @@
         <v>33775510</v>
       </c>
       <c r="B134" t="s">
-        <v>313</v>
-      </c>
-      <c r="C134" s="4" t="s">
-        <v>312</v>
+        <v>203</v>
+      </c>
+      <c r="C134" s="1">
+        <v>54781732100</v>
       </c>
       <c r="D134" t="s">
-        <v>314</v>
+        <v>204</v>
       </c>
       <c r="E134" t="s">
         <v>2</v>
@@ -4245,13 +3652,13 @@
         <v>34465306</v>
       </c>
       <c r="B135" t="s">
-        <v>315</v>
-      </c>
-      <c r="C135" s="4" t="s">
-        <v>316</v>
+        <v>205</v>
+      </c>
+      <c r="C135" s="1">
+        <v>57219090924</v>
       </c>
       <c r="D135" t="s">
-        <v>317</v>
+        <v>206</v>
       </c>
       <c r="E135" t="s">
         <v>2</v>
@@ -4262,13 +3669,13 @@
         <v>34465306</v>
       </c>
       <c r="B136" t="s">
-        <v>318</v>
-      </c>
-      <c r="C136" s="4" t="s">
-        <v>319</v>
+        <v>207</v>
+      </c>
+      <c r="C136" s="1">
+        <v>57247761400</v>
       </c>
       <c r="D136" t="s">
-        <v>320</v>
+        <v>208</v>
       </c>
       <c r="E136" t="s">
         <v>2</v>
@@ -4279,16 +3686,16 @@
         <v>33764497</v>
       </c>
       <c r="B137" t="s">
-        <v>321</v>
-      </c>
-      <c r="C137" s="4" t="s">
-        <v>322</v>
+        <v>209</v>
+      </c>
+      <c r="C137" s="1">
+        <v>57222561060</v>
       </c>
       <c r="D137" t="s">
-        <v>323</v>
+        <v>210</v>
       </c>
       <c r="E137" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
@@ -4296,13 +3703,13 @@
         <v>33870242</v>
       </c>
       <c r="B138" t="s">
-        <v>324</v>
-      </c>
-      <c r="C138" s="4" t="s">
-        <v>325</v>
+        <v>211</v>
+      </c>
+      <c r="C138" s="1">
+        <v>6507498358</v>
       </c>
       <c r="D138" t="s">
-        <v>326</v>
+        <v>212</v>
       </c>
       <c r="E138" t="s">
         <v>2</v>
@@ -4313,13 +3720,13 @@
         <v>34092431</v>
       </c>
       <c r="B139" t="s">
-        <v>327</v>
-      </c>
-      <c r="C139" s="4" t="s">
-        <v>328</v>
+        <v>213</v>
+      </c>
+      <c r="C139" s="1">
+        <v>15834866400</v>
       </c>
       <c r="D139" t="s">
-        <v>329</v>
+        <v>214</v>
       </c>
       <c r="E139" t="s">
         <v>2</v>
@@ -4330,13 +3737,13 @@
         <v>34294425</v>
       </c>
       <c r="B140" t="s">
-        <v>330</v>
-      </c>
-      <c r="C140" s="4" t="s">
-        <v>331</v>
+        <v>215</v>
+      </c>
+      <c r="C140" s="1">
+        <v>56726795700</v>
       </c>
       <c r="D140" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="E140" t="s">
         <v>2</v>
@@ -4347,13 +3754,13 @@
         <v>34047758</v>
       </c>
       <c r="B141" t="s">
-        <v>330</v>
-      </c>
-      <c r="C141" s="4" t="s">
-        <v>331</v>
+        <v>215</v>
+      </c>
+      <c r="C141" s="1">
+        <v>56726795700</v>
       </c>
       <c r="D141" t="s">
-        <v>332</v>
+        <v>216</v>
       </c>
       <c r="E141" t="s">
         <v>2</v>
@@ -4364,13 +3771,13 @@
         <v>34465306</v>
       </c>
       <c r="B142" t="s">
-        <v>333</v>
-      </c>
-      <c r="C142" s="4" t="s">
-        <v>334</v>
+        <v>217</v>
+      </c>
+      <c r="C142" s="1">
+        <v>6602770204</v>
       </c>
       <c r="D142" t="s">
-        <v>335</v>
+        <v>218</v>
       </c>
       <c r="E142" t="s">
         <v>2</v>
@@ -4381,13 +3788,13 @@
         <v>33929934</v>
       </c>
       <c r="B143" t="s">
-        <v>336</v>
-      </c>
-      <c r="C143" s="4" t="s">
-        <v>337</v>
+        <v>219</v>
+      </c>
+      <c r="C143" s="1">
+        <v>7003401025</v>
       </c>
       <c r="D143" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="E143" t="s">
         <v>2</v>
@@ -4398,13 +3805,13 @@
         <v>34465306</v>
       </c>
       <c r="B144" t="s">
-        <v>338</v>
-      </c>
-      <c r="C144" s="4" t="s">
-        <v>339</v>
+        <v>220</v>
+      </c>
+      <c r="C144" s="1">
+        <v>7005609345</v>
       </c>
       <c r="D144" t="s">
-        <v>340</v>
+        <v>221</v>
       </c>
       <c r="E144" t="s">
         <v>2</v>
@@ -4415,13 +3822,13 @@
         <v>34449885</v>
       </c>
       <c r="B145" t="s">
-        <v>341</v>
-      </c>
-      <c r="C145" s="4" t="s">
-        <v>342</v>
+        <v>222</v>
+      </c>
+      <c r="C145" s="1">
+        <v>57193723605</v>
       </c>
       <c r="D145" t="s">
-        <v>343</v>
+        <v>223</v>
       </c>
       <c r="E145" t="s">
         <v>2</v>
@@ -4432,13 +3839,13 @@
         <v>34143195</v>
       </c>
       <c r="B146" t="s">
-        <v>344</v>
-      </c>
-      <c r="C146" s="4" t="s">
-        <v>345</v>
+        <v>224</v>
+      </c>
+      <c r="C146" s="1">
+        <v>6602960850</v>
       </c>
       <c r="D146" t="s">
-        <v>346</v>
+        <v>225</v>
       </c>
       <c r="E146" t="s">
         <v>2</v>
@@ -4449,13 +3856,13 @@
         <v>33993265</v>
       </c>
       <c r="B147" t="s">
-        <v>347</v>
-      </c>
-      <c r="C147" s="4" t="s">
-        <v>348</v>
+        <v>226</v>
+      </c>
+      <c r="C147" s="1">
+        <v>57223619842</v>
       </c>
       <c r="D147" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E147" t="s">
         <v>2</v>
@@ -4466,13 +3873,13 @@
         <v>33775510</v>
       </c>
       <c r="B148" t="s">
-        <v>349</v>
-      </c>
-      <c r="C148" s="4" t="s">
-        <v>350</v>
+        <v>227</v>
+      </c>
+      <c r="C148" s="1">
+        <v>7102902130</v>
       </c>
       <c r="D148" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="E148" t="s">
         <v>2</v>
@@ -4483,13 +3890,13 @@
         <v>34264327</v>
       </c>
       <c r="B149" t="s">
-        <v>351</v>
-      </c>
-      <c r="C149" s="4" t="s">
-        <v>352</v>
+        <v>228</v>
+      </c>
+      <c r="C149" s="1">
+        <v>57215224223</v>
       </c>
       <c r="D149" t="s">
-        <v>353</v>
+        <v>229</v>
       </c>
       <c r="E149" t="s">
         <v>2</v>
@@ -4500,13 +3907,13 @@
         <v>33228253</v>
       </c>
       <c r="B150" t="s">
-        <v>354</v>
-      </c>
-      <c r="C150" s="4" t="s">
-        <v>355</v>
+        <v>230</v>
+      </c>
+      <c r="C150" s="1">
+        <v>57220038353</v>
       </c>
       <c r="D150" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E150" t="s">
         <v>2</v>
@@ -4517,13 +3924,13 @@
         <v>33228253</v>
       </c>
       <c r="B151" t="s">
-        <v>356</v>
-      </c>
-      <c r="C151" s="4" t="s">
-        <v>357</v>
+        <v>231</v>
+      </c>
+      <c r="C151" s="1">
+        <v>57201635827</v>
       </c>
       <c r="D151" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E151" t="s">
         <v>2</v>
@@ -4534,13 +3941,13 @@
         <v>33323475</v>
       </c>
       <c r="B152" t="s">
-        <v>358</v>
-      </c>
-      <c r="C152" s="4" t="s">
-        <v>359</v>
+        <v>232</v>
+      </c>
+      <c r="C152" s="1">
+        <v>35105616100</v>
       </c>
       <c r="D152" t="s">
-        <v>360</v>
+        <v>233</v>
       </c>
       <c r="E152" t="s">
         <v>2</v>
@@ -4551,13 +3958,13 @@
         <v>34159841</v>
       </c>
       <c r="B153" t="s">
-        <v>358</v>
-      </c>
-      <c r="C153" s="4" t="s">
-        <v>359</v>
+        <v>232</v>
+      </c>
+      <c r="C153" s="1">
+        <v>35105616100</v>
       </c>
       <c r="D153" t="s">
-        <v>225</v>
+        <v>149</v>
       </c>
       <c r="E153" t="s">
         <v>2</v>
@@ -4568,13 +3975,13 @@
         <v>34294425</v>
       </c>
       <c r="B154" t="s">
-        <v>361</v>
-      </c>
-      <c r="C154" s="4" t="s">
-        <v>362</v>
+        <v>234</v>
+      </c>
+      <c r="C154" s="1">
+        <v>44861686400</v>
       </c>
       <c r="D154" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="E154" t="s">
         <v>2</v>
@@ -4585,13 +3992,13 @@
         <v>33812965</v>
       </c>
       <c r="B155" t="s">
-        <v>363</v>
-      </c>
-      <c r="C155" s="4" t="s">
-        <v>364</v>
+        <v>235</v>
+      </c>
+      <c r="C155" s="1">
+        <v>35956823200</v>
       </c>
       <c r="D155" t="s">
-        <v>365</v>
+        <v>236</v>
       </c>
       <c r="E155" t="s">
         <v>2</v>
@@ -4602,13 +4009,13 @@
         <v>33993265</v>
       </c>
       <c r="B156" t="s">
-        <v>366</v>
-      </c>
-      <c r="C156" s="4" t="s">
-        <v>367</v>
+        <v>237</v>
+      </c>
+      <c r="C156" s="1">
+        <v>57223638097</v>
       </c>
       <c r="D156" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E156" t="s">
         <v>2</v>
@@ -4619,13 +4026,13 @@
         <v>34264327</v>
       </c>
       <c r="B157" t="s">
-        <v>368</v>
-      </c>
-      <c r="C157" s="4" t="s">
-        <v>369</v>
+        <v>238</v>
+      </c>
+      <c r="C157" s="1">
+        <v>55342047200</v>
       </c>
       <c r="D157" t="s">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="E157" t="s">
         <v>2</v>
@@ -4636,13 +4043,13 @@
         <v>33323475</v>
       </c>
       <c r="B158" t="s">
-        <v>370</v>
-      </c>
-      <c r="C158" s="4" t="s">
-        <v>371</v>
+        <v>239</v>
+      </c>
+      <c r="C158" s="1">
+        <v>57220807007</v>
       </c>
       <c r="D158" t="s">
-        <v>372</v>
+        <v>240</v>
       </c>
       <c r="E158" t="s">
         <v>2</v>
@@ -4653,16 +4060,16 @@
         <v>33775510</v>
       </c>
       <c r="B159" t="s">
-        <v>373</v>
-      </c>
-      <c r="C159" s="4" t="s">
-        <v>374</v>
+        <v>241</v>
+      </c>
+      <c r="C159" s="1">
+        <v>57221478098</v>
       </c>
       <c r="D159" t="s">
-        <v>375</v>
+        <v>242</v>
       </c>
       <c r="E159" t="s">
-        <v>220</v>
+        <v>146</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
@@ -4670,16 +4077,16 @@
         <v>34143195</v>
       </c>
       <c r="B160" t="s">
-        <v>376</v>
-      </c>
-      <c r="C160" s="4" t="s">
-        <v>377</v>
+        <v>243</v>
+      </c>
+      <c r="C160" s="1">
+        <v>57224855499</v>
       </c>
       <c r="D160" t="s">
-        <v>378</v>
+        <v>244</v>
       </c>
       <c r="E160" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
@@ -4687,13 +4094,13 @@
         <v>34465306</v>
       </c>
       <c r="B161" t="s">
-        <v>379</v>
-      </c>
-      <c r="C161" s="4" t="s">
-        <v>380</v>
+        <v>245</v>
+      </c>
+      <c r="C161" s="1">
+        <v>37031890800</v>
       </c>
       <c r="D161" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="E161" t="s">
         <v>2</v>
@@ -4704,16 +4111,16 @@
         <v>34449885</v>
       </c>
       <c r="B162" t="s">
-        <v>381</v>
-      </c>
-      <c r="C162" s="4" t="s">
-        <v>382</v>
+        <v>246</v>
+      </c>
+      <c r="C162" s="1">
+        <v>57253157300</v>
       </c>
       <c r="D162" t="s">
-        <v>383</v>
+        <v>247</v>
       </c>
       <c r="E162" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
@@ -4721,13 +4128,13 @@
         <v>34465306</v>
       </c>
       <c r="B163" t="s">
-        <v>384</v>
-      </c>
-      <c r="C163" s="4" t="s">
-        <v>385</v>
+        <v>248</v>
+      </c>
+      <c r="C163" s="1">
+        <v>57206489093</v>
       </c>
       <c r="D163" t="s">
-        <v>161</v>
+        <v>106</v>
       </c>
       <c r="E163" t="s">
         <v>2</v>
@@ -4738,13 +4145,13 @@
         <v>34465306</v>
       </c>
       <c r="B164" t="s">
-        <v>386</v>
-      </c>
-      <c r="C164" s="4" t="s">
-        <v>387</v>
+        <v>249</v>
+      </c>
+      <c r="C164" s="1">
+        <v>55440163000</v>
       </c>
       <c r="D164" t="s">
-        <v>388</v>
+        <v>250</v>
       </c>
       <c r="E164" t="s">
         <v>2</v>
@@ -4755,13 +4162,13 @@
         <v>34464194</v>
       </c>
       <c r="B165" t="s">
-        <v>389</v>
-      </c>
-      <c r="C165" s="4" t="s">
-        <v>390</v>
+        <v>251</v>
+      </c>
+      <c r="C165" s="1">
+        <v>7401757793</v>
       </c>
       <c r="D165" t="s">
-        <v>188</v>
+        <v>125</v>
       </c>
       <c r="E165" t="s">
         <v>2</v>
@@ -4772,13 +4179,13 @@
         <v>34081608</v>
       </c>
       <c r="B166" t="s">
-        <v>391</v>
-      </c>
-      <c r="C166" s="4" t="s">
-        <v>392</v>
+        <v>252</v>
+      </c>
+      <c r="C166" s="1">
+        <v>6603849738</v>
       </c>
       <c r="D166" t="s">
-        <v>393</v>
+        <v>253</v>
       </c>
       <c r="E166" t="s">
         <v>2</v>
@@ -4789,13 +4196,13 @@
         <v>34264327</v>
       </c>
       <c r="B167" t="s">
-        <v>394</v>
-      </c>
-      <c r="C167" s="4" t="s">
-        <v>395</v>
+        <v>254</v>
+      </c>
+      <c r="C167" s="1">
+        <v>35811377600</v>
       </c>
       <c r="D167" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="E167" t="s">
         <v>2</v>
@@ -4806,16 +4213,16 @@
         <v>33993265</v>
       </c>
       <c r="B168" t="s">
-        <v>396</v>
-      </c>
-      <c r="C168" s="4" t="s">
-        <v>397</v>
+        <v>255</v>
+      </c>
+      <c r="C168" s="1">
+        <v>8654801000</v>
       </c>
       <c r="D168" t="s">
-        <v>398</v>
+        <v>256</v>
       </c>
       <c r="E168" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
@@ -4823,16 +4230,16 @@
         <v>34092431</v>
       </c>
       <c r="B169" t="s">
-        <v>399</v>
-      </c>
-      <c r="C169" s="4" t="s">
-        <v>400</v>
+        <v>257</v>
+      </c>
+      <c r="C169" s="1">
+        <v>15124590700</v>
       </c>
       <c r="D169" t="s">
-        <v>401</v>
+        <v>258</v>
       </c>
       <c r="E169" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
@@ -4840,13 +4247,13 @@
         <v>33775510</v>
       </c>
       <c r="B170" t="s">
-        <v>402</v>
-      </c>
-      <c r="C170" s="4" t="s">
-        <v>403</v>
+        <v>259</v>
+      </c>
+      <c r="C170" s="1">
+        <v>57194655586</v>
       </c>
       <c r="D170" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="E170" t="s">
         <v>2</v>
@@ -4857,13 +4264,13 @@
         <v>34465306</v>
       </c>
       <c r="B171" t="s">
-        <v>404</v>
-      </c>
-      <c r="C171" s="4" t="s">
-        <v>405</v>
+        <v>260</v>
+      </c>
+      <c r="C171" s="1">
+        <v>6603913083</v>
       </c>
       <c r="D171" t="s">
-        <v>320</v>
+        <v>208</v>
       </c>
       <c r="E171" t="s">
         <v>2</v>
@@ -4874,13 +4281,13 @@
         <v>34465306</v>
       </c>
       <c r="B172" t="s">
-        <v>406</v>
-      </c>
-      <c r="C172" s="4" t="s">
-        <v>407</v>
+        <v>261</v>
+      </c>
+      <c r="C172" s="1">
+        <v>57248618200</v>
       </c>
       <c r="D172" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="E172" t="s">
         <v>2</v>
@@ -4891,13 +4298,13 @@
         <v>34143195</v>
       </c>
       <c r="B173" t="s">
-        <v>408</v>
-      </c>
-      <c r="C173" s="4" t="s">
-        <v>409</v>
+        <v>262</v>
+      </c>
+      <c r="C173" s="1">
+        <v>13908371800</v>
       </c>
       <c r="D173" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="E173" t="s">
         <v>2</v>
@@ -4908,13 +4315,13 @@
         <v>34465306</v>
       </c>
       <c r="B174" t="s">
-        <v>410</v>
-      </c>
-      <c r="C174" s="4" t="s">
-        <v>411</v>
+        <v>263</v>
+      </c>
+      <c r="C174" s="1">
+        <v>57247109400</v>
       </c>
       <c r="D174" t="s">
-        <v>179</v>
+        <v>119</v>
       </c>
       <c r="E174" t="s">
         <v>2</v>
@@ -4925,13 +4332,13 @@
         <v>33870242</v>
       </c>
       <c r="B175" t="s">
-        <v>412</v>
-      </c>
-      <c r="C175" s="4" t="s">
-        <v>413</v>
+        <v>264</v>
+      </c>
+      <c r="C175" s="1">
+        <v>57219552278</v>
       </c>
       <c r="D175" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="E175" t="s">
         <v>2</v>
@@ -4942,13 +4349,13 @@
         <v>33812965</v>
       </c>
       <c r="B176" t="s">
-        <v>414</v>
-      </c>
-      <c r="C176" s="4" t="s">
-        <v>415</v>
+        <v>265</v>
+      </c>
+      <c r="C176" s="1">
+        <v>57223273144</v>
       </c>
       <c r="D176" t="s">
-        <v>416</v>
+        <v>266</v>
       </c>
       <c r="E176" t="s">
         <v>2</v>
@@ -4959,13 +4366,13 @@
         <v>34465306</v>
       </c>
       <c r="B177" t="s">
-        <v>417</v>
-      </c>
-      <c r="C177" s="4" t="s">
-        <v>418</v>
+        <v>267</v>
+      </c>
+      <c r="C177" s="1">
+        <v>57247975800</v>
       </c>
       <c r="D177" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="E177" t="s">
         <v>2</v>
@@ -4976,16 +4383,16 @@
         <v>33577743</v>
       </c>
       <c r="B178" t="s">
-        <v>419</v>
-      </c>
-      <c r="C178" s="4" t="s">
-        <v>420</v>
+        <v>268</v>
+      </c>
+      <c r="C178" s="1">
+        <v>57203164460</v>
       </c>
       <c r="D178" t="s">
-        <v>421</v>
+        <v>269</v>
       </c>
       <c r="E178" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
@@ -4993,13 +4400,13 @@
         <v>33993265</v>
       </c>
       <c r="B179" t="s">
-        <v>422</v>
-      </c>
-      <c r="C179" s="4" t="s">
-        <v>423</v>
+        <v>270</v>
+      </c>
+      <c r="C179" s="1">
+        <v>57222310846</v>
       </c>
       <c r="D179" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E179" t="s">
         <v>2</v>
@@ -5010,13 +4417,13 @@
         <v>34449885</v>
       </c>
       <c r="B180" t="s">
-        <v>424</v>
-      </c>
-      <c r="C180" s="4" t="s">
-        <v>425</v>
+        <v>271</v>
+      </c>
+      <c r="C180" s="1">
+        <v>35103612800</v>
       </c>
       <c r="D180" t="s">
-        <v>162</v>
+        <v>107</v>
       </c>
       <c r="E180" t="s">
         <v>2</v>
@@ -5027,13 +4434,13 @@
         <v>33471114</v>
       </c>
       <c r="B181" t="s">
-        <v>426</v>
-      </c>
-      <c r="C181" s="4" t="s">
-        <v>427</v>
+        <v>272</v>
+      </c>
+      <c r="C181" s="1">
+        <v>24559254500</v>
       </c>
       <c r="D181" t="s">
-        <v>428</v>
+        <v>273</v>
       </c>
       <c r="E181" t="s">
         <v>2</v>
@@ -5044,16 +4451,16 @@
         <v>33775510</v>
       </c>
       <c r="B182" t="s">
-        <v>429</v>
-      </c>
-      <c r="C182" s="4" t="s">
-        <v>430</v>
+        <v>274</v>
+      </c>
+      <c r="C182" s="1">
+        <v>57221463718</v>
       </c>
       <c r="D182" t="s">
-        <v>285</v>
+        <v>187</v>
       </c>
       <c r="E182" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
@@ -5061,16 +4468,16 @@
         <v>34465306</v>
       </c>
       <c r="B183" t="s">
-        <v>431</v>
-      </c>
-      <c r="C183" s="4" t="s">
-        <v>432</v>
+        <v>275</v>
+      </c>
+      <c r="C183" s="1">
+        <v>57505973700</v>
       </c>
       <c r="D183" t="s">
-        <v>433</v>
+        <v>276</v>
       </c>
       <c r="E183" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
@@ -5078,13 +4485,13 @@
         <v>33929934</v>
       </c>
       <c r="B184" t="s">
-        <v>434</v>
-      </c>
-      <c r="C184" s="4" t="s">
-        <v>435</v>
+        <v>277</v>
+      </c>
+      <c r="C184" s="1">
+        <v>24399866200</v>
       </c>
       <c r="D184" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="E184" t="s">
         <v>2</v>
@@ -5095,13 +4502,13 @@
         <v>34143195</v>
       </c>
       <c r="B185" t="s">
-        <v>436</v>
-      </c>
-      <c r="C185" s="4" t="s">
-        <v>437</v>
+        <v>278</v>
+      </c>
+      <c r="C185" s="1">
+        <v>57224861523</v>
       </c>
       <c r="D185" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="E185" t="s">
         <v>2</v>
@@ -5112,13 +4519,13 @@
         <v>33323475</v>
       </c>
       <c r="B186" t="s">
-        <v>438</v>
-      </c>
-      <c r="C186" s="4" t="s">
-        <v>439</v>
+        <v>279</v>
+      </c>
+      <c r="C186" s="1">
+        <v>7003596797</v>
       </c>
       <c r="D186" t="s">
-        <v>360</v>
+        <v>233</v>
       </c>
       <c r="E186" t="s">
         <v>2</v>
@@ -5129,13 +4536,13 @@
         <v>34159841</v>
       </c>
       <c r="B187" t="s">
-        <v>438</v>
-      </c>
-      <c r="C187" s="4" t="s">
-        <v>439</v>
+        <v>279</v>
+      </c>
+      <c r="C187" s="1">
+        <v>7003596797</v>
       </c>
       <c r="D187" t="s">
-        <v>225</v>
+        <v>149</v>
       </c>
       <c r="E187" t="s">
         <v>2</v>
@@ -5146,16 +4553,16 @@
         <v>33577743</v>
       </c>
       <c r="B188" t="s">
-        <v>440</v>
-      </c>
-      <c r="C188" s="4" t="s">
-        <v>441</v>
+        <v>280</v>
+      </c>
+      <c r="C188" s="1">
+        <v>7004054150</v>
       </c>
       <c r="D188" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="E188" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
@@ -5163,16 +4570,16 @@
         <v>34159841</v>
       </c>
       <c r="B189" t="s">
-        <v>442</v>
-      </c>
-      <c r="C189" s="4" t="s">
-        <v>443</v>
+        <v>281</v>
+      </c>
+      <c r="C189" s="1">
+        <v>57498495100</v>
       </c>
       <c r="D189" t="s">
-        <v>444</v>
+        <v>282</v>
       </c>
       <c r="E189" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
@@ -5180,13 +4587,13 @@
         <v>34465306</v>
       </c>
       <c r="B190" t="s">
-        <v>445</v>
-      </c>
-      <c r="C190" s="4" t="s">
-        <v>446</v>
+        <v>283</v>
+      </c>
+      <c r="C190" s="1">
+        <v>6507192326</v>
       </c>
       <c r="D190" t="s">
-        <v>320</v>
+        <v>208</v>
       </c>
       <c r="E190" t="s">
         <v>2</v>
@@ -5197,13 +4604,13 @@
         <v>34294425</v>
       </c>
       <c r="B191" t="s">
-        <v>447</v>
-      </c>
-      <c r="C191" s="4" t="s">
-        <v>448</v>
+        <v>284</v>
+      </c>
+      <c r="C191" s="1">
+        <v>57222625524</v>
       </c>
       <c r="D191" t="s">
-        <v>449</v>
+        <v>285</v>
       </c>
       <c r="E191" t="s">
         <v>2</v>
@@ -5214,286 +4621,285 @@
         <v>33870242</v>
       </c>
       <c r="B192" t="s">
-        <v>450</v>
-      </c>
-      <c r="C192" s="4" t="s">
-        <v>451</v>
+        <v>286</v>
+      </c>
+      <c r="C192" s="1">
+        <v>57218318041</v>
       </c>
       <c r="D192" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="E192" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>34465306</v>
       </c>
       <c r="B193" t="s">
-        <v>452</v>
-      </c>
-      <c r="C193" s="4" t="s">
-        <v>453</v>
+        <v>287</v>
+      </c>
+      <c r="C193" s="1">
+        <v>57248193700</v>
       </c>
       <c r="D193" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="E193" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>34464194</v>
       </c>
       <c r="B194" t="s">
-        <v>454</v>
-      </c>
-      <c r="C194" s="4" t="s">
-        <v>455</v>
+        <v>288</v>
+      </c>
+      <c r="C194" s="1">
+        <v>57205355603</v>
       </c>
       <c r="D194" t="s">
-        <v>456</v>
+        <v>289</v>
       </c>
       <c r="E194" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A195" s="2">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195">
         <v>34465306</v>
       </c>
-      <c r="B195" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="C195" s="4">
+      <c r="B195" t="s">
+        <v>290</v>
+      </c>
+      <c r="C195" s="1">
         <v>57247761200</v>
       </c>
-      <c r="D195" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="E195" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F195" s="1"/>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D195" t="s">
+        <v>221</v>
+      </c>
+      <c r="E195" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>33929934</v>
       </c>
       <c r="B196" t="s">
-        <v>458</v>
-      </c>
-      <c r="C196" s="4" t="s">
-        <v>459</v>
+        <v>291</v>
+      </c>
+      <c r="C196" s="1">
+        <v>10938812100</v>
       </c>
       <c r="D196" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="E196" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>33812965</v>
       </c>
       <c r="B197" t="s">
-        <v>460</v>
-      </c>
-      <c r="C197" s="4" t="s">
-        <v>461</v>
+        <v>292</v>
+      </c>
+      <c r="C197" s="1">
+        <v>7201439663</v>
       </c>
       <c r="D197" t="s">
-        <v>462</v>
+        <v>293</v>
       </c>
       <c r="E197" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>34092431</v>
       </c>
       <c r="B198" t="s">
-        <v>463</v>
-      </c>
-      <c r="C198" s="4" t="s">
-        <v>464</v>
+        <v>294</v>
+      </c>
+      <c r="C198" s="1">
+        <v>57201284143</v>
       </c>
       <c r="D198" t="s">
-        <v>182</v>
+        <v>121</v>
       </c>
       <c r="E198" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>34010526</v>
       </c>
       <c r="B199" t="s">
-        <v>463</v>
-      </c>
-      <c r="C199" s="4" t="s">
-        <v>464</v>
+        <v>294</v>
+      </c>
+      <c r="C199" s="1">
+        <v>57201284143</v>
       </c>
       <c r="D199" t="s">
-        <v>182</v>
+        <v>121</v>
       </c>
       <c r="E199" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>34449885</v>
       </c>
       <c r="B200" t="s">
-        <v>463</v>
-      </c>
-      <c r="C200" s="4" t="s">
-        <v>464</v>
+        <v>294</v>
+      </c>
+      <c r="C200" s="1">
+        <v>57201284143</v>
       </c>
       <c r="D200" t="s">
-        <v>465</v>
+        <v>295</v>
       </c>
       <c r="E200" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>34375655</v>
       </c>
       <c r="B201" t="s">
-        <v>463</v>
-      </c>
-      <c r="C201" s="4" t="s">
-        <v>464</v>
+        <v>294</v>
+      </c>
+      <c r="C201" s="1">
+        <v>57201284143</v>
       </c>
       <c r="D201" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E201" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>33861873</v>
       </c>
       <c r="B202" t="s">
-        <v>463</v>
-      </c>
-      <c r="C202" s="4" t="s">
-        <v>464</v>
+        <v>294</v>
+      </c>
+      <c r="C202" s="1">
+        <v>57201284143</v>
       </c>
       <c r="D202" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E202" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>34465306</v>
       </c>
       <c r="B203" t="s">
-        <v>466</v>
-      </c>
-      <c r="C203" s="4" t="s">
-        <v>467</v>
+        <v>296</v>
+      </c>
+      <c r="C203" s="1">
+        <v>57248618300</v>
       </c>
       <c r="D203" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="E203" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>33993265</v>
       </c>
       <c r="B204" t="s">
-        <v>468</v>
-      </c>
-      <c r="C204" s="4" t="s">
-        <v>469</v>
+        <v>297</v>
+      </c>
+      <c r="C204" s="1">
+        <v>57433725900</v>
       </c>
       <c r="D204" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E204" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>34143195</v>
       </c>
       <c r="B205" t="s">
-        <v>470</v>
-      </c>
-      <c r="C205" s="4" t="s">
-        <v>471</v>
+        <v>298</v>
+      </c>
+      <c r="C205" s="1">
+        <v>55615499000</v>
       </c>
       <c r="D205" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="E205" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>33993265</v>
       </c>
       <c r="B206" t="s">
-        <v>472</v>
-      </c>
-      <c r="C206" s="4" t="s">
-        <v>473</v>
+        <v>299</v>
+      </c>
+      <c r="C206" s="1">
+        <v>56937637400</v>
       </c>
       <c r="D206" t="s">
-        <v>474</v>
+        <v>300</v>
       </c>
       <c r="E206" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>34010526</v>
       </c>
       <c r="B207" t="s">
-        <v>475</v>
-      </c>
-      <c r="C207" s="4" t="s">
-        <v>476</v>
+        <v>301</v>
+      </c>
+      <c r="C207" s="1">
+        <v>57210142538</v>
       </c>
       <c r="D207" t="s">
-        <v>182</v>
+        <v>121</v>
       </c>
       <c r="E207" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>33861873</v>
       </c>
       <c r="B208" t="s">
-        <v>475</v>
-      </c>
-      <c r="C208" s="4" t="s">
-        <v>476</v>
+        <v>301</v>
+      </c>
+      <c r="C208" s="1">
+        <v>57210142538</v>
       </c>
       <c r="D208" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E208" t="s">
         <v>2</v>
@@ -5504,13 +4910,13 @@
         <v>34274126</v>
       </c>
       <c r="B209" t="s">
-        <v>477</v>
-      </c>
-      <c r="C209" s="4" t="s">
-        <v>478</v>
+        <v>302</v>
+      </c>
+      <c r="C209" s="1">
+        <v>15841191100</v>
       </c>
       <c r="D209" t="s">
-        <v>479</v>
+        <v>303</v>
       </c>
       <c r="E209" t="s">
         <v>2</v>
@@ -5521,13 +4927,13 @@
         <v>34081608</v>
       </c>
       <c r="B210" t="s">
-        <v>480</v>
-      </c>
-      <c r="C210" s="4" t="s">
-        <v>481</v>
+        <v>304</v>
+      </c>
+      <c r="C210" s="1">
+        <v>57222044013</v>
       </c>
       <c r="D210" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="E210" t="s">
         <v>2</v>
@@ -5543,6 +4949,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CF80A72F950AB44BBD3F7B6758C7B51D" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b571fce440275f0622ff001093cb92ee">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="57a8e7ef-4f20-414a-a2d4-5a9bd8d86111" xmlns:ns3="e5c03532-ca69-4eca-baa0-f6c5bcd6c094" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f94315dc4d15cb105dea15baff015bd0" ns2:_="" ns3:_="">
     <xsd:import namespace="57a8e7ef-4f20-414a-a2d4-5a9bd8d86111"/>
@@ -5761,7 +5176,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="e5c03532-ca69-4eca-baa0-f6c5bcd6c094" xsi:nil="true"/>
@@ -5772,16 +5187,15 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECF2A7D3-433A-4455-B95D-DBA96B4DDA19}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC6D2546-0A27-4146-AB1D-352EBB352AFD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5800,7 +5214,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D06896F-B9E0-4410-A772-3EB1E1F27771}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -5809,12 +5223,4 @@
     <ds:schemaRef ds:uri="57a8e7ef-4f20-414a-a2d4-5a9bd8d86111"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECF2A7D3-433A-4455-B95D-DBA96B4DDA19}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>